--- a/storage/app/iprs/1/week_5.xlsx
+++ b/storage/app/iprs/1/week_5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513D4ACD-5354-407D-8FFC-495B9FBAFA09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA98814-9ADC-4E10-A4D6-447325B4E2C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>id</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>M1-W054</t>
+  </si>
+  <si>
+    <t>M1-W007</t>
   </si>
 </sst>
 </file>
@@ -739,13 +742,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ52"/>
+  <dimension ref="A1:AMJ53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="T44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B27" sqref="B27"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8:AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1608,7 +1611,7 @@
     </row>
     <row r="8" spans="1:41" ht="15.75" thickBot="1">
       <c r="A8" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B8" s="7">
         <v>0</v>
@@ -1729,7 +1732,7 @@
     </row>
     <row r="9" spans="1:41" ht="15.75" thickBot="1">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
@@ -1764,7 +1767,7 @@
       <c r="L9" s="7">
         <v>0</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="13">
         <v>0</v>
       </c>
       <c r="N9" s="13">
@@ -1795,7 +1798,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="10">
-        <v>0.57999999999999996</v>
+        <v>0</v>
       </c>
       <c r="X9" s="13">
         <v>0</v>
@@ -1850,7 +1853,7 @@
     </row>
     <row r="10" spans="1:41" ht="15.75" thickBot="1">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -1903,7 +1906,7 @@
       <c r="R10" s="13">
         <v>0</v>
       </c>
-      <c r="S10" s="18">
+      <c r="S10" s="11">
         <v>0</v>
       </c>
       <c r="T10" s="10">
@@ -1915,8 +1918,8 @@
       <c r="V10" s="13">
         <v>0</v>
       </c>
-      <c r="W10" s="21">
-        <v>1</v>
+      <c r="W10" s="10">
+        <v>0.57999999999999996</v>
       </c>
       <c r="X10" s="13">
         <v>0</v>
@@ -1971,7 +1974,7 @@
     </row>
     <row r="11" spans="1:41" ht="15.75" thickBot="1">
       <c r="A11" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="7">
         <v>0</v>
@@ -2006,7 +2009,7 @@
       <c r="L11" s="7">
         <v>0</v>
       </c>
-      <c r="M11" s="13">
+      <c r="M11" s="11">
         <v>0</v>
       </c>
       <c r="N11" s="13">
@@ -2037,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11" s="13">
         <v>0</v>
@@ -2092,7 +2095,7 @@
     </row>
     <row r="12" spans="1:41" ht="15.75" thickBot="1">
       <c r="A12" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="7">
         <v>0</v>
@@ -2213,7 +2216,7 @@
     </row>
     <row r="13" spans="1:41" ht="15.75" thickBot="1">
       <c r="A13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7">
         <v>0</v>
@@ -2334,7 +2337,7 @@
     </row>
     <row r="14" spans="1:41" ht="15.75" thickBot="1">
       <c r="A14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="7">
         <v>0</v>
@@ -2351,14 +2354,14 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="10">
-        <v>2</v>
+      <c r="G14" s="7">
+        <v>0</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="10">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
       </c>
       <c r="J14" s="7">
         <v>0</v>
@@ -2387,7 +2390,7 @@
       <c r="R14" s="13">
         <v>0</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="18">
         <v>0</v>
       </c>
       <c r="T14" s="10">
@@ -2400,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X14" s="13">
         <v>0</v>
@@ -2455,7 +2458,7 @@
     </row>
     <row r="15" spans="1:41" ht="15.75" thickBot="1">
       <c r="A15" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
@@ -2472,14 +2475,14 @@
       <c r="F15" s="7">
         <v>0</v>
       </c>
-      <c r="G15" s="7">
-        <v>0</v>
+      <c r="G15" s="10">
+        <v>2</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I15" s="10">
+        <v>4</v>
       </c>
       <c r="J15" s="7">
         <v>0</v>
@@ -2508,7 +2511,7 @@
       <c r="R15" s="13">
         <v>0</v>
       </c>
-      <c r="S15" s="18">
+      <c r="S15" s="11">
         <v>0</v>
       </c>
       <c r="T15" s="10">
@@ -2521,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="X15" s="13">
         <v>0</v>
@@ -2576,7 +2579,7 @@
     </row>
     <row r="16" spans="1:41" ht="15.75" thickBot="1">
       <c r="A16" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
@@ -2632,7 +2635,7 @@
       <c r="S16" s="18">
         <v>0</v>
       </c>
-      <c r="T16" s="11">
+      <c r="T16" s="10">
         <v>0</v>
       </c>
       <c r="U16" s="13">
@@ -2697,7 +2700,7 @@
     </row>
     <row r="17" spans="1:41" ht="15.75" thickBot="1">
       <c r="A17" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7">
         <v>0</v>
@@ -2753,7 +2756,7 @@
       <c r="S17" s="18">
         <v>0</v>
       </c>
-      <c r="T17" s="10">
+      <c r="T17" s="11">
         <v>0</v>
       </c>
       <c r="U17" s="13">
@@ -2818,7 +2821,7 @@
     </row>
     <row r="18" spans="1:41" ht="15.75" thickBot="1">
       <c r="A18" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="7">
         <v>0</v>
@@ -2835,14 +2838,14 @@
       <c r="F18" s="7">
         <v>0</v>
       </c>
-      <c r="G18" s="10">
-        <v>2</v>
-      </c>
-      <c r="H18" s="10">
-        <v>2</v>
-      </c>
-      <c r="I18" s="10">
-        <v>4</v>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
       </c>
       <c r="J18" s="7">
         <v>0</v>
@@ -2939,7 +2942,7 @@
     </row>
     <row r="19" spans="1:41" ht="15.75" thickBot="1">
       <c r="A19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="7">
         <v>0</v>
@@ -2956,14 +2959,14 @@
       <c r="F19" s="7">
         <v>0</v>
       </c>
-      <c r="G19" s="7">
-        <v>0</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
+      <c r="G19" s="10">
+        <v>2</v>
+      </c>
+      <c r="H19" s="10">
+        <v>2</v>
+      </c>
+      <c r="I19" s="10">
+        <v>4</v>
       </c>
       <c r="J19" s="7">
         <v>0</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="20" spans="1:41" ht="15.75" thickBot="1">
       <c r="A20" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="7">
         <v>0</v>
@@ -3095,7 +3098,7 @@
       <c r="L20" s="7">
         <v>0</v>
       </c>
-      <c r="M20" s="11">
+      <c r="M20" s="13">
         <v>0</v>
       </c>
       <c r="N20" s="13">
@@ -3113,7 +3116,7 @@
       <c r="R20" s="13">
         <v>0</v>
       </c>
-      <c r="S20" s="11">
+      <c r="S20" s="18">
         <v>0</v>
       </c>
       <c r="T20" s="10">
@@ -3125,8 +3128,8 @@
       <c r="V20" s="13">
         <v>0</v>
       </c>
-      <c r="W20" s="10">
-        <v>2.75</v>
+      <c r="W20" s="21">
+        <v>0</v>
       </c>
       <c r="X20" s="13">
         <v>0</v>
@@ -3181,7 +3184,7 @@
     </row>
     <row r="21" spans="1:41" ht="15.75" thickBot="1">
       <c r="A21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="7">
         <v>0</v>
@@ -3216,7 +3219,7 @@
       <c r="L21" s="7">
         <v>0</v>
       </c>
-      <c r="M21" s="13">
+      <c r="M21" s="11">
         <v>0</v>
       </c>
       <c r="N21" s="13">
@@ -3234,7 +3237,7 @@
       <c r="R21" s="13">
         <v>0</v>
       </c>
-      <c r="S21" s="18">
+      <c r="S21" s="11">
         <v>0</v>
       </c>
       <c r="T21" s="10">
@@ -3246,8 +3249,8 @@
       <c r="V21" s="13">
         <v>0</v>
       </c>
-      <c r="W21" s="21">
-        <v>0</v>
+      <c r="W21" s="10">
+        <v>2.75</v>
       </c>
       <c r="X21" s="13">
         <v>0</v>
@@ -3302,7 +3305,7 @@
     </row>
     <row r="22" spans="1:41" ht="15.75" thickBot="1">
       <c r="A22" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="7">
         <v>0</v>
@@ -3367,8 +3370,8 @@
       <c r="V22" s="13">
         <v>0</v>
       </c>
-      <c r="W22" s="10">
-        <v>0.25</v>
+      <c r="W22" s="21">
+        <v>0</v>
       </c>
       <c r="X22" s="13">
         <v>0</v>
@@ -3423,7 +3426,7 @@
     </row>
     <row r="23" spans="1:41" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -3488,8 +3491,8 @@
       <c r="V23" s="13">
         <v>0</v>
       </c>
-      <c r="W23" s="21">
-        <v>0</v>
+      <c r="W23" s="10">
+        <v>0.25</v>
       </c>
       <c r="X23" s="13">
         <v>0</v>
@@ -3544,7 +3547,7 @@
     </row>
     <row r="24" spans="1:41" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7">
         <v>0</v>
@@ -3665,7 +3668,7 @@
     </row>
     <row r="25" spans="1:41" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="7">
         <v>0</v>
@@ -3730,8 +3733,8 @@
       <c r="V25" s="13">
         <v>0</v>
       </c>
-      <c r="W25" s="10">
-        <v>1</v>
+      <c r="W25" s="21">
+        <v>0</v>
       </c>
       <c r="X25" s="13">
         <v>0</v>
@@ -3786,7 +3789,7 @@
     </row>
     <row r="26" spans="1:41" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
@@ -3851,8 +3854,8 @@
       <c r="V26" s="13">
         <v>0</v>
       </c>
-      <c r="W26" s="21">
-        <v>0</v>
+      <c r="W26" s="10">
+        <v>1</v>
       </c>
       <c r="X26" s="13">
         <v>0</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="27" spans="1:41" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="7">
         <v>0</v>
@@ -4028,7 +4031,7 @@
     </row>
     <row r="28" spans="1:41" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="7">
         <v>0</v>
@@ -4149,7 +4152,7 @@
     </row>
     <row r="29" spans="1:41" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="7">
         <v>0</v>
@@ -4214,8 +4217,8 @@
       <c r="V29" s="13">
         <v>0</v>
       </c>
-      <c r="W29" s="10">
-        <v>0.75</v>
+      <c r="W29" s="21">
+        <v>0</v>
       </c>
       <c r="X29" s="13">
         <v>0</v>
@@ -4270,7 +4273,7 @@
     </row>
     <row r="30" spans="1:41" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="7">
         <v>0</v>
@@ -4335,8 +4338,8 @@
       <c r="V30" s="13">
         <v>0</v>
       </c>
-      <c r="W30" s="21">
-        <v>0</v>
+      <c r="W30" s="10">
+        <v>0.75</v>
       </c>
       <c r="X30" s="13">
         <v>0</v>
@@ -4391,7 +4394,7 @@
     </row>
     <row r="31" spans="1:41" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="7">
         <v>0</v>
@@ -4512,7 +4515,7 @@
     </row>
     <row r="32" spans="1:41" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7">
         <v>0</v>
@@ -4547,7 +4550,7 @@
       <c r="L32" s="7">
         <v>0</v>
       </c>
-      <c r="M32" s="11">
+      <c r="M32" s="13">
         <v>0</v>
       </c>
       <c r="N32" s="13">
@@ -4565,7 +4568,7 @@
       <c r="R32" s="13">
         <v>0</v>
       </c>
-      <c r="S32" s="11">
+      <c r="S32" s="18">
         <v>0</v>
       </c>
       <c r="T32" s="10">
@@ -4578,7 +4581,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X32" s="13">
         <v>0</v>
@@ -4632,8 +4635,8 @@
       </c>
     </row>
     <row r="33" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A33" s="6" t="s">
-        <v>32</v>
+      <c r="A33" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B33" s="7">
         <v>0</v>
@@ -4650,14 +4653,14 @@
       <c r="F33" s="7">
         <v>0</v>
       </c>
-      <c r="G33" s="10">
-        <v>2</v>
-      </c>
-      <c r="H33" s="11">
-        <v>0</v>
-      </c>
-      <c r="I33" s="10">
-        <v>4</v>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
       </c>
       <c r="J33" s="7">
         <v>0</v>
@@ -4668,7 +4671,7 @@
       <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="13">
+      <c r="M33" s="11">
         <v>0</v>
       </c>
       <c r="N33" s="13">
@@ -4681,25 +4684,25 @@
         <v>0</v>
       </c>
       <c r="Q33" s="13">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R33" s="13">
         <v>0</v>
       </c>
-      <c r="S33" s="10">
-        <v>1</v>
+      <c r="S33" s="11">
+        <v>0</v>
       </c>
       <c r="T33" s="10">
         <v>0</v>
       </c>
       <c r="U33" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33" s="13">
         <v>0</v>
       </c>
-      <c r="W33" s="10">
-        <v>1.25</v>
+      <c r="W33" s="21">
+        <v>0.25</v>
       </c>
       <c r="X33" s="13">
         <v>0</v>
@@ -4718,11 +4721,11 @@
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="13"/>
-      <c r="AE33" s="11">
-        <v>3</v>
+      <c r="AE33" s="13">
+        <v>0</v>
       </c>
       <c r="AF33" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="13">
         <v>0</v>
@@ -4733,11 +4736,11 @@
       <c r="AI33" s="13">
         <v>0</v>
       </c>
-      <c r="AJ33" s="23">
-        <v>46</v>
+      <c r="AJ33" s="13">
+        <v>0</v>
       </c>
       <c r="AK33" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AL33" s="13">
         <v>0</v>
@@ -4753,8 +4756,8 @@
       </c>
     </row>
     <row r="34" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A34" s="5" t="s">
-        <v>33</v>
+      <c r="A34" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B34" s="7">
         <v>0</v>
@@ -4771,14 +4774,14 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>0</v>
-      </c>
-      <c r="I34" s="7">
-        <v>0</v>
+      <c r="G34" s="10">
+        <v>2</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="10">
+        <v>4</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
@@ -4802,25 +4805,25 @@
         <v>0</v>
       </c>
       <c r="Q34" s="13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R34" s="13">
         <v>0</v>
       </c>
-      <c r="S34" s="18">
-        <v>0</v>
+      <c r="S34" s="10">
+        <v>1</v>
       </c>
       <c r="T34" s="10">
         <v>0</v>
       </c>
       <c r="U34" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" s="13">
         <v>0</v>
       </c>
-      <c r="W34" s="21">
-        <v>0</v>
+      <c r="W34" s="10">
+        <v>1.25</v>
       </c>
       <c r="X34" s="13">
         <v>0</v>
@@ -4839,11 +4842,11 @@
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="13">
-        <v>0</v>
+      <c r="AE34" s="11">
+        <v>3</v>
       </c>
       <c r="AF34" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG34" s="13">
         <v>0</v>
@@ -4854,11 +4857,11 @@
       <c r="AI34" s="13">
         <v>0</v>
       </c>
-      <c r="AJ34" s="13">
-        <v>0</v>
+      <c r="AJ34" s="23">
+        <v>46</v>
       </c>
       <c r="AK34" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AL34" s="13">
         <v>0</v>
@@ -4875,7 +4878,7 @@
     </row>
     <row r="35" spans="1:41" ht="15.75" thickBot="1">
       <c r="A35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>
@@ -4996,7 +4999,7 @@
     </row>
     <row r="36" spans="1:41" ht="15.75" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="7">
         <v>0</v>
@@ -5014,13 +5017,13 @@
         <v>0</v>
       </c>
       <c r="G36" s="7">
-        <v>2</v>
-      </c>
-      <c r="H36" s="11">
+        <v>0</v>
+      </c>
+      <c r="H36" s="7">
         <v>0</v>
       </c>
       <c r="I36" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" s="7">
         <v>0</v>
@@ -5044,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R36" s="13">
         <v>0</v>
@@ -5056,13 +5059,13 @@
         <v>0</v>
       </c>
       <c r="U36" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36" s="13">
         <v>0</v>
       </c>
       <c r="W36" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X36" s="13">
         <v>0</v>
@@ -5082,10 +5085,10 @@
       <c r="AC36" s="13"/>
       <c r="AD36" s="13"/>
       <c r="AE36" s="13">
-        <v>27</v>
-      </c>
-      <c r="AF36" s="11">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="AF36" s="13">
+        <v>0</v>
       </c>
       <c r="AG36" s="13">
         <v>0</v>
@@ -5096,11 +5099,11 @@
       <c r="AI36" s="13">
         <v>0</v>
       </c>
-      <c r="AJ36" s="23">
-        <v>26</v>
+      <c r="AJ36" s="13">
+        <v>0</v>
       </c>
       <c r="AK36" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="13">
         <v>0</v>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
@@ -5135,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <v>0</v>
-      </c>
-      <c r="H37" s="7">
+        <v>2</v>
+      </c>
+      <c r="H37" s="11">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J37" s="7">
         <v>0</v>
@@ -5165,25 +5168,25 @@
         <v>0</v>
       </c>
       <c r="Q37" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R37" s="13">
         <v>0</v>
       </c>
-      <c r="S37" s="11">
+      <c r="S37" s="18">
         <v>0</v>
       </c>
       <c r="T37" s="10">
         <v>0</v>
       </c>
       <c r="U37" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="13">
         <v>0</v>
       </c>
       <c r="W37" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X37" s="13">
         <v>0</v>
@@ -5203,10 +5206,10 @@
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="13">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="AF37" s="11">
+        <v>11</v>
       </c>
       <c r="AG37" s="13">
         <v>0</v>
@@ -5217,11 +5220,11 @@
       <c r="AI37" s="13">
         <v>0</v>
       </c>
-      <c r="AJ37" s="13">
-        <v>0</v>
+      <c r="AJ37" s="23">
+        <v>26</v>
       </c>
       <c r="AK37" s="13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL37" s="13">
         <v>0</v>
@@ -5238,7 +5241,7 @@
     </row>
     <row r="38" spans="1:41" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="7">
         <v>0</v>
@@ -5256,13 +5259,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <v>2</v>
-      </c>
-      <c r="H38" s="12">
+        <v>0</v>
+      </c>
+      <c r="H38" s="7">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
@@ -5273,7 +5276,7 @@
       <c r="L38" s="7">
         <v>0</v>
       </c>
-      <c r="M38" s="14">
+      <c r="M38" s="13">
         <v>0</v>
       </c>
       <c r="N38" s="13">
@@ -5285,14 +5288,14 @@
       <c r="P38" s="13">
         <v>0</v>
       </c>
-      <c r="Q38" s="11">
-        <v>116</v>
+      <c r="Q38" s="13">
+        <v>0</v>
       </c>
       <c r="R38" s="13">
         <v>0</v>
       </c>
-      <c r="S38" s="19">
-        <v>1</v>
+      <c r="S38" s="11">
+        <v>0</v>
       </c>
       <c r="T38" s="10">
         <v>0</v>
@@ -5303,8 +5306,8 @@
       <c r="V38" s="13">
         <v>0</v>
       </c>
-      <c r="W38" s="22">
-        <v>1.5</v>
+      <c r="W38" s="21">
+        <v>0</v>
       </c>
       <c r="X38" s="13">
         <v>0</v>
@@ -5338,10 +5341,10 @@
       <c r="AI38" s="13">
         <v>0</v>
       </c>
-      <c r="AJ38" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK38" s="14">
+      <c r="AJ38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="13">
         <v>0</v>
       </c>
       <c r="AL38" s="13">
@@ -5359,7 +5362,7 @@
     </row>
     <row r="39" spans="1:41" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="7">
         <v>0</v>
@@ -5377,13 +5380,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="7">
-        <v>0</v>
-      </c>
-      <c r="H39" s="7">
+        <v>2</v>
+      </c>
+      <c r="H39" s="12">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" s="7">
         <v>0</v>
@@ -5394,7 +5397,7 @@
       <c r="L39" s="7">
         <v>0</v>
       </c>
-      <c r="M39" s="13">
+      <c r="M39" s="14">
         <v>0</v>
       </c>
       <c r="N39" s="13">
@@ -5406,14 +5409,14 @@
       <c r="P39" s="13">
         <v>0</v>
       </c>
-      <c r="Q39" s="13">
-        <v>0</v>
+      <c r="Q39" s="11">
+        <v>116</v>
       </c>
       <c r="R39" s="13">
         <v>0</v>
       </c>
-      <c r="S39" s="18">
-        <v>0</v>
+      <c r="S39" s="19">
+        <v>1</v>
       </c>
       <c r="T39" s="10">
         <v>0</v>
@@ -5424,8 +5427,8 @@
       <c r="V39" s="13">
         <v>0</v>
       </c>
-      <c r="W39" s="21">
-        <v>0</v>
+      <c r="W39" s="22">
+        <v>1.5</v>
       </c>
       <c r="X39" s="13">
         <v>0</v>
@@ -5459,10 +5462,10 @@
       <c r="AI39" s="13">
         <v>0</v>
       </c>
-      <c r="AJ39" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="13">
+      <c r="AJ39" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="14">
         <v>0</v>
       </c>
       <c r="AL39" s="13">
@@ -5480,7 +5483,7 @@
     </row>
     <row r="40" spans="1:41" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
@@ -5601,7 +5604,7 @@
     </row>
     <row r="41" spans="1:41" ht="15.75" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="7">
         <v>0</v>
@@ -5722,7 +5725,7 @@
     </row>
     <row r="42" spans="1:41" ht="15.75" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
@@ -5843,7 +5846,7 @@
     </row>
     <row r="43" spans="1:41" ht="15.75" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="7">
         <v>0</v>
@@ -5861,13 +5864,13 @@
         <v>0</v>
       </c>
       <c r="G43" s="7">
-        <v>2</v>
-      </c>
-      <c r="H43" s="12">
+        <v>0</v>
+      </c>
+      <c r="H43" s="7">
         <v>0</v>
       </c>
       <c r="I43" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J43" s="7">
         <v>0</v>
@@ -5878,40 +5881,40 @@
       <c r="L43" s="7">
         <v>0</v>
       </c>
-      <c r="M43" s="14">
-        <v>0</v>
-      </c>
-      <c r="N43" s="14">
-        <v>2</v>
+      <c r="M43" s="13">
+        <v>0</v>
+      </c>
+      <c r="N43" s="13">
+        <v>0</v>
       </c>
       <c r="O43" s="13">
         <v>0</v>
       </c>
-      <c r="P43" s="14">
-        <v>21</v>
-      </c>
-      <c r="Q43" s="14">
-        <v>210</v>
+      <c r="P43" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>0</v>
       </c>
       <c r="R43" s="13">
         <v>0</v>
       </c>
-      <c r="S43" s="11">
-        <v>0</v>
-      </c>
-      <c r="T43" s="13">
+      <c r="S43" s="18">
+        <v>0</v>
+      </c>
+      <c r="T43" s="10">
         <v>0</v>
       </c>
       <c r="U43" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="13">
         <v>0</v>
       </c>
-      <c r="W43" s="22">
-        <v>0</v>
-      </c>
-      <c r="X43" s="14">
+      <c r="W43" s="21">
+        <v>0</v>
+      </c>
+      <c r="X43" s="13">
         <v>0</v>
       </c>
       <c r="Y43" s="13">
@@ -5920,19 +5923,19 @@
       <c r="Z43" s="13">
         <v>0</v>
       </c>
-      <c r="AA43" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB43" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC43" s="19"/>
-      <c r="AD43" s="19"/>
-      <c r="AE43" s="14">
-        <v>63</v>
-      </c>
-      <c r="AF43" s="14">
-        <v>23</v>
+      <c r="AA43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="13"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="13">
+        <v>0</v>
       </c>
       <c r="AG43" s="13">
         <v>0</v>
@@ -5943,11 +5946,11 @@
       <c r="AI43" s="13">
         <v>0</v>
       </c>
-      <c r="AJ43" s="14">
-        <v>73</v>
-      </c>
-      <c r="AK43" s="14">
-        <v>73</v>
+      <c r="AJ43" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="13">
+        <v>0</v>
       </c>
       <c r="AL43" s="13">
         <v>0</v>
@@ -5964,7 +5967,7 @@
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="7">
         <v>0</v>
@@ -6012,10 +6015,10 @@
         <v>21</v>
       </c>
       <c r="Q44" s="14">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="R44" s="13">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S44" s="11">
         <v>0</v>
@@ -6044,16 +6047,16 @@
       <c r="AA44" s="14">
         <v>0</v>
       </c>
-      <c r="AB44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="13"/>
-      <c r="AD44" s="13"/>
+      <c r="AB44" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
       <c r="AE44" s="14">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AF44" s="14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG44" s="13">
         <v>0</v>
@@ -6065,10 +6068,10 @@
         <v>0</v>
       </c>
       <c r="AJ44" s="14">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AK44" s="14">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL44" s="13">
         <v>0</v>
@@ -6085,7 +6088,7 @@
     </row>
     <row r="45" spans="1:41" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="7">
         <v>0</v>
@@ -6096,11 +6099,11 @@
       <c r="D45" s="7">
         <v>0</v>
       </c>
-      <c r="E45" s="11">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>2</v>
+      <c r="E45" s="7">
+        <v>0</v>
+      </c>
+      <c r="F45" s="7">
+        <v>0</v>
       </c>
       <c r="G45" s="7">
         <v>2</v>
@@ -6133,10 +6136,10 @@
         <v>21</v>
       </c>
       <c r="Q45" s="14">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="R45" s="13">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="S45" s="11">
         <v>0</v>
@@ -6171,10 +6174,10 @@
       <c r="AC45" s="13"/>
       <c r="AD45" s="13"/>
       <c r="AE45" s="14">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AF45" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG45" s="13">
         <v>0</v>
@@ -6186,10 +6189,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="14">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK45" s="14">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AL45" s="13">
         <v>0</v>
@@ -6206,7 +6209,7 @@
     </row>
     <row r="46" spans="1:41" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="7">
         <v>0</v>
@@ -6245,7 +6248,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O46" s="13">
         <v>0</v>
@@ -6254,19 +6257,19 @@
         <v>21</v>
       </c>
       <c r="Q46" s="14">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="R46" s="13">
         <v>0</v>
       </c>
-      <c r="S46" s="18">
+      <c r="S46" s="11">
         <v>0</v>
       </c>
       <c r="T46" s="13">
         <v>0</v>
       </c>
       <c r="U46" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" s="13">
         <v>0</v>
@@ -6292,10 +6295,10 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="14">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="AF46" s="14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AG46" s="13">
         <v>0</v>
@@ -6307,10 +6310,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="14">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AK46" s="14">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AL46" s="13">
         <v>0</v>
@@ -6326,8 +6329,8 @@
       </c>
     </row>
     <row r="47" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A47" s="6" t="s">
-        <v>46</v>
+      <c r="A47" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B47" s="7">
         <v>0</v>
@@ -6341,7 +6344,7 @@
       <c r="E47" s="11">
         <v>0</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F47" s="10">
         <v>2</v>
       </c>
       <c r="G47" s="7">
@@ -6366,7 +6369,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O47" s="13">
         <v>0</v>
@@ -6375,19 +6378,19 @@
         <v>21</v>
       </c>
       <c r="Q47" s="14">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="R47" s="13">
         <v>0</v>
       </c>
-      <c r="S47" s="11">
+      <c r="S47" s="18">
         <v>0</v>
       </c>
       <c r="T47" s="13">
         <v>0</v>
       </c>
       <c r="U47" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V47" s="13">
         <v>0</v>
@@ -6402,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA47" s="14">
         <v>0</v>
@@ -6413,10 +6416,10 @@
       <c r="AC47" s="13"/>
       <c r="AD47" s="13"/>
       <c r="AE47" s="14">
-        <v>61.5</v>
+        <v>43</v>
       </c>
       <c r="AF47" s="14">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AG47" s="13">
         <v>0</v>
@@ -6428,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="14">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AK47" s="14">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AL47" s="13">
         <v>0</v>
@@ -6448,7 +6451,7 @@
     </row>
     <row r="48" spans="1:41" ht="15.75" thickBot="1">
       <c r="A48" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="7">
         <v>0</v>
@@ -6459,20 +6462,20 @@
       <c r="D48" s="7">
         <v>0</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="11">
         <v>0</v>
       </c>
       <c r="F48" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G48" s="7">
-        <v>0</v>
-      </c>
-      <c r="H48" s="7">
+        <v>2</v>
+      </c>
+      <c r="H48" s="12">
         <v>0</v>
       </c>
       <c r="I48" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J48" s="7">
         <v>0</v>
@@ -6483,49 +6486,49 @@
       <c r="L48" s="7">
         <v>0</v>
       </c>
-      <c r="M48" s="15">
-        <v>0</v>
-      </c>
-      <c r="N48" s="13">
-        <v>0</v>
+      <c r="M48" s="14">
+        <v>0</v>
+      </c>
+      <c r="N48" s="14">
+        <v>2</v>
       </c>
       <c r="O48" s="13">
         <v>0</v>
       </c>
-      <c r="P48" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q48" s="13">
-        <v>0</v>
+      <c r="P48" s="14">
+        <v>21</v>
+      </c>
+      <c r="Q48" s="14">
+        <v>210</v>
       </c>
       <c r="R48" s="13">
         <v>0</v>
       </c>
-      <c r="S48" s="18">
+      <c r="S48" s="11">
         <v>0</v>
       </c>
       <c r="T48" s="13">
         <v>0</v>
       </c>
       <c r="U48" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V48" s="13">
         <v>0</v>
       </c>
-      <c r="W48" s="21">
-        <v>0</v>
-      </c>
-      <c r="X48" s="13">
+      <c r="W48" s="22">
+        <v>0</v>
+      </c>
+      <c r="X48" s="14">
         <v>0</v>
       </c>
       <c r="Y48" s="13">
         <v>0</v>
       </c>
       <c r="Z48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA48" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="14">
         <v>0</v>
       </c>
       <c r="AB48" s="13">
@@ -6533,11 +6536,11 @@
       </c>
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
-      <c r="AE48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>0</v>
+      <c r="AE48" s="14">
+        <v>61.5</v>
+      </c>
+      <c r="AF48" s="14">
+        <v>30</v>
       </c>
       <c r="AG48" s="13">
         <v>0</v>
@@ -6548,11 +6551,11 @@
       <c r="AI48" s="13">
         <v>0</v>
       </c>
-      <c r="AJ48" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>0</v>
+      <c r="AJ48" s="14">
+        <v>72</v>
+      </c>
+      <c r="AK48" s="14">
+        <v>72</v>
       </c>
       <c r="AL48" s="13">
         <v>0</v>
@@ -6569,7 +6572,7 @@
     </row>
     <row r="49" spans="1:41" ht="15.75" thickBot="1">
       <c r="A49" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="7">
         <v>0</v>
@@ -6690,54 +6693,54 @@
     </row>
     <row r="50" spans="1:41" ht="15.75" thickBot="1">
       <c r="A50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="10">
-        <v>0</v>
-      </c>
-      <c r="C50" s="10">
-        <v>0</v>
-      </c>
-      <c r="D50" s="10">
-        <v>0</v>
-      </c>
-      <c r="E50" s="10">
-        <v>0</v>
-      </c>
-      <c r="F50" s="10">
-        <v>0</v>
-      </c>
-      <c r="G50" s="8">
-        <v>0</v>
-      </c>
-      <c r="H50" s="8">
-        <v>0</v>
-      </c>
-      <c r="I50" s="8">
-        <v>0</v>
-      </c>
-      <c r="J50" s="10">
-        <v>1</v>
-      </c>
-      <c r="K50" s="10">
-        <v>1</v>
-      </c>
-      <c r="L50" s="10">
-        <v>1</v>
-      </c>
-      <c r="M50" s="16">
-        <v>0</v>
-      </c>
-      <c r="N50" s="14">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0</v>
+      </c>
+      <c r="C50" s="7">
+        <v>0</v>
+      </c>
+      <c r="D50" s="7">
+        <v>0</v>
+      </c>
+      <c r="E50" s="7">
+        <v>0</v>
+      </c>
+      <c r="F50" s="7">
+        <v>0</v>
+      </c>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
+      <c r="H50" s="7">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="7">
+        <v>0</v>
+      </c>
+      <c r="K50" s="7">
+        <v>0</v>
+      </c>
+      <c r="L50" s="7">
+        <v>0</v>
+      </c>
+      <c r="M50" s="15">
+        <v>0</v>
+      </c>
+      <c r="N50" s="13">
+        <v>0</v>
       </c>
       <c r="O50" s="13">
         <v>0</v>
       </c>
-      <c r="P50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q50" s="14">
+      <c r="P50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13">
         <v>0</v>
       </c>
       <c r="R50" s="13">
@@ -6750,24 +6753,24 @@
         <v>0</v>
       </c>
       <c r="U50" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V50" s="13">
         <v>0</v>
       </c>
-      <c r="W50" s="22">
-        <v>0</v>
-      </c>
-      <c r="X50" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y50" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z50" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA50" s="14">
+      <c r="W50" s="21">
+        <v>0</v>
+      </c>
+      <c r="X50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="13">
         <v>0</v>
       </c>
       <c r="AB50" s="13">
@@ -6775,11 +6778,11 @@
       </c>
       <c r="AC50" s="13"/>
       <c r="AD50" s="13"/>
-      <c r="AE50" s="14">
-        <v>6</v>
-      </c>
-      <c r="AF50" s="14">
-        <v>2</v>
+      <c r="AE50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="13">
+        <v>0</v>
       </c>
       <c r="AG50" s="13">
         <v>0</v>
@@ -6790,11 +6793,11 @@
       <c r="AI50" s="13">
         <v>0</v>
       </c>
-      <c r="AJ50" s="12">
-        <v>6</v>
-      </c>
-      <c r="AK50" s="14">
-        <v>7</v>
+      <c r="AJ50" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="13">
+        <v>0</v>
       </c>
       <c r="AL50" s="13">
         <v>0</v>
@@ -6811,7 +6814,7 @@
     </row>
     <row r="51" spans="1:41" ht="15.75" thickBot="1">
       <c r="A51" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" s="10">
         <v>0</v>
@@ -6823,10 +6826,10 @@
         <v>0</v>
       </c>
       <c r="E51" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G51" s="8">
         <v>0</v>
@@ -6850,16 +6853,16 @@
         <v>0</v>
       </c>
       <c r="N51" s="14">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O51" s="13">
         <v>0</v>
       </c>
       <c r="P51" s="14">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="14">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="R51" s="13">
         <v>0</v>
@@ -6871,7 +6874,7 @@
         <v>0</v>
       </c>
       <c r="U51" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V51" s="13">
         <v>0</v>
@@ -6880,10 +6883,10 @@
         <v>0</v>
       </c>
       <c r="X51" s="14">
-        <v>26</v>
-      </c>
-      <c r="Y51" s="14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y51" s="12">
+        <v>0</v>
       </c>
       <c r="Z51" s="14">
         <v>0</v>
@@ -6897,10 +6900,10 @@
       <c r="AC51" s="13"/>
       <c r="AD51" s="13"/>
       <c r="AE51" s="14">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="AF51" s="14">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AG51" s="13">
         <v>0</v>
@@ -6912,10 +6915,10 @@
         <v>0</v>
       </c>
       <c r="AJ51" s="12">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="AK51" s="14">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="AL51" s="13">
         <v>0</v>
@@ -6932,22 +6935,22 @@
     </row>
     <row r="52" spans="1:41" ht="15.75" thickBot="1">
       <c r="A52" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B52" s="10">
+        <v>0</v>
+      </c>
+      <c r="C52" s="10">
+        <v>0</v>
+      </c>
+      <c r="D52" s="10">
+        <v>0</v>
+      </c>
+      <c r="E52" s="10">
         <v>2</v>
       </c>
-      <c r="C52" s="10">
-        <v>4</v>
-      </c>
-      <c r="D52" s="10">
-        <v>4</v>
-      </c>
-      <c r="E52" s="10">
-        <v>0</v>
-      </c>
       <c r="F52" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -6959,28 +6962,28 @@
         <v>0</v>
       </c>
       <c r="J52" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K52" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L52" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M52" s="16">
         <v>0</v>
       </c>
       <c r="N52" s="14">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O52" s="13">
         <v>0</v>
       </c>
       <c r="P52" s="14">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q52" s="14">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="R52" s="13">
         <v>0</v>
@@ -7001,10 +7004,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="14">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Y52" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z52" s="14">
         <v>0</v>
@@ -7018,36 +7021,157 @@
       <c r="AC52" s="13"/>
       <c r="AD52" s="13"/>
       <c r="AE52" s="14">
+        <v>73</v>
+      </c>
+      <c r="AF52" s="14">
+        <v>22</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="12">
+        <v>64</v>
+      </c>
+      <c r="AK52" s="14">
+        <v>65</v>
+      </c>
+      <c r="AL52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A53" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B53" s="10">
+        <v>2</v>
+      </c>
+      <c r="C53" s="10">
+        <v>4</v>
+      </c>
+      <c r="D53" s="10">
+        <v>4</v>
+      </c>
+      <c r="E53" s="10">
+        <v>0</v>
+      </c>
+      <c r="F53" s="10">
+        <v>0</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0</v>
+      </c>
+      <c r="H53" s="8">
+        <v>0</v>
+      </c>
+      <c r="I53" s="8">
+        <v>0</v>
+      </c>
+      <c r="J53" s="10">
+        <v>2</v>
+      </c>
+      <c r="K53" s="10">
+        <v>2</v>
+      </c>
+      <c r="L53" s="10">
+        <v>2</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0</v>
+      </c>
+      <c r="N53" s="14">
+        <v>16</v>
+      </c>
+      <c r="O53" s="13">
+        <v>0</v>
+      </c>
+      <c r="P53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="14">
+        <v>0</v>
+      </c>
+      <c r="R53" s="13">
+        <v>0</v>
+      </c>
+      <c r="S53" s="18">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13">
+        <v>0</v>
+      </c>
+      <c r="U53" s="13">
+        <v>0</v>
+      </c>
+      <c r="V53" s="13">
+        <v>0</v>
+      </c>
+      <c r="W53" s="22">
+        <v>0</v>
+      </c>
+      <c r="X53" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y53" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="13"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="14">
         <v>11.75</v>
       </c>
-      <c r="AF52" s="14">
+      <c r="AF53" s="14">
         <v>3</v>
       </c>
-      <c r="AG52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ52" s="12">
+      <c r="AG53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="12">
         <v>15</v>
       </c>
-      <c r="AK52" s="14">
+      <c r="AK53" s="14">
         <v>11</v>
       </c>
-      <c r="AL52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN52" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO52" s="13">
+      <c r="AL53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="13">
         <v>0</v>
       </c>
     </row>

--- a/storage/app/iprs/1/week_5.xlsx
+++ b/storage/app/iprs/1/week_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFA98814-9ADC-4E10-A4D6-447325B4E2C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B49C90-6175-45AB-AA2E-055AF0FEE397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>id</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>M1-W007</t>
+  </si>
+  <si>
+    <t>M1-W022</t>
   </si>
 </sst>
 </file>
@@ -742,13 +745,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ53"/>
+  <dimension ref="A1:AMJ54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T44" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="S14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C8" sqref="C8:AP8"/>
+      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -3426,7 +3429,7 @@
     </row>
     <row r="23" spans="1:41" ht="15.75" thickBot="1">
       <c r="A23" s="5" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B23" s="7">
         <v>0</v>
@@ -3491,8 +3494,8 @@
       <c r="V23" s="13">
         <v>0</v>
       </c>
-      <c r="W23" s="10">
-        <v>0.25</v>
+      <c r="W23" s="21">
+        <v>0.5</v>
       </c>
       <c r="X23" s="13">
         <v>0</v>
@@ -3547,7 +3550,7 @@
     </row>
     <row r="24" spans="1:41" ht="15.75" thickBot="1">
       <c r="A24" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="7">
         <v>0</v>
@@ -3612,8 +3615,8 @@
       <c r="V24" s="13">
         <v>0</v>
       </c>
-      <c r="W24" s="21">
-        <v>0</v>
+      <c r="W24" s="10">
+        <v>0.25</v>
       </c>
       <c r="X24" s="13">
         <v>0</v>
@@ -3668,7 +3671,7 @@
     </row>
     <row r="25" spans="1:41" ht="15.75" thickBot="1">
       <c r="A25" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="7">
         <v>0</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="26" spans="1:41" ht="15.75" thickBot="1">
       <c r="A26" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="7">
         <v>0</v>
@@ -3854,8 +3857,8 @@
       <c r="V26" s="13">
         <v>0</v>
       </c>
-      <c r="W26" s="10">
-        <v>1</v>
+      <c r="W26" s="21">
+        <v>0</v>
       </c>
       <c r="X26" s="13">
         <v>0</v>
@@ -3910,7 +3913,7 @@
     </row>
     <row r="27" spans="1:41" ht="15.75" thickBot="1">
       <c r="A27" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="7">
         <v>0</v>
@@ -3975,8 +3978,8 @@
       <c r="V27" s="13">
         <v>0</v>
       </c>
-      <c r="W27" s="21">
-        <v>0</v>
+      <c r="W27" s="10">
+        <v>1</v>
       </c>
       <c r="X27" s="13">
         <v>0</v>
@@ -4031,7 +4034,7 @@
     </row>
     <row r="28" spans="1:41" ht="15.75" thickBot="1">
       <c r="A28" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="7">
         <v>0</v>
@@ -4152,7 +4155,7 @@
     </row>
     <row r="29" spans="1:41" ht="15.75" thickBot="1">
       <c r="A29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="7">
         <v>0</v>
@@ -4273,7 +4276,7 @@
     </row>
     <row r="30" spans="1:41" ht="15.75" thickBot="1">
       <c r="A30" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="7">
         <v>0</v>
@@ -4338,8 +4341,8 @@
       <c r="V30" s="13">
         <v>0</v>
       </c>
-      <c r="W30" s="10">
-        <v>0.75</v>
+      <c r="W30" s="21">
+        <v>0</v>
       </c>
       <c r="X30" s="13">
         <v>0</v>
@@ -4394,7 +4397,7 @@
     </row>
     <row r="31" spans="1:41" ht="15.75" thickBot="1">
       <c r="A31" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="7">
         <v>0</v>
@@ -4459,8 +4462,8 @@
       <c r="V31" s="13">
         <v>0</v>
       </c>
-      <c r="W31" s="21">
-        <v>0</v>
+      <c r="W31" s="10">
+        <v>0.75</v>
       </c>
       <c r="X31" s="13">
         <v>0</v>
@@ -4515,7 +4518,7 @@
     </row>
     <row r="32" spans="1:41" ht="15.75" thickBot="1">
       <c r="A32" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="7">
         <v>0</v>
@@ -4636,7 +4639,7 @@
     </row>
     <row r="33" spans="1:41" ht="15.75" thickBot="1">
       <c r="A33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="7">
         <v>0</v>
@@ -4671,7 +4674,7 @@
       <c r="L33" s="7">
         <v>0</v>
       </c>
-      <c r="M33" s="11">
+      <c r="M33" s="13">
         <v>0</v>
       </c>
       <c r="N33" s="13">
@@ -4689,7 +4692,7 @@
       <c r="R33" s="13">
         <v>0</v>
       </c>
-      <c r="S33" s="11">
+      <c r="S33" s="18">
         <v>0</v>
       </c>
       <c r="T33" s="10">
@@ -4702,7 +4705,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="21">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X33" s="13">
         <v>0</v>
@@ -4756,8 +4759,8 @@
       </c>
     </row>
     <row r="34" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A34" s="6" t="s">
-        <v>32</v>
+      <c r="A34" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="B34" s="7">
         <v>0</v>
@@ -4774,14 +4777,14 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="10">
-        <v>2</v>
-      </c>
-      <c r="H34" s="11">
-        <v>0</v>
-      </c>
-      <c r="I34" s="10">
-        <v>4</v>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>0</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
       </c>
       <c r="J34" s="7">
         <v>0</v>
@@ -4792,7 +4795,7 @@
       <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M34" s="13">
+      <c r="M34" s="11">
         <v>0</v>
       </c>
       <c r="N34" s="13">
@@ -4805,25 +4808,25 @@
         <v>0</v>
       </c>
       <c r="Q34" s="13">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="R34" s="13">
         <v>0</v>
       </c>
-      <c r="S34" s="10">
-        <v>1</v>
+      <c r="S34" s="11">
+        <v>0</v>
       </c>
       <c r="T34" s="10">
         <v>0</v>
       </c>
       <c r="U34" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="13">
         <v>0</v>
       </c>
-      <c r="W34" s="10">
-        <v>1.25</v>
+      <c r="W34" s="21">
+        <v>0.25</v>
       </c>
       <c r="X34" s="13">
         <v>0</v>
@@ -4842,11 +4845,11 @@
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="13"/>
-      <c r="AE34" s="11">
-        <v>3</v>
+      <c r="AE34" s="13">
+        <v>0</v>
       </c>
       <c r="AF34" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="13">
         <v>0</v>
@@ -4857,11 +4860,11 @@
       <c r="AI34" s="13">
         <v>0</v>
       </c>
-      <c r="AJ34" s="23">
-        <v>46</v>
+      <c r="AJ34" s="13">
+        <v>0</v>
       </c>
       <c r="AK34" s="13">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AL34" s="13">
         <v>0</v>
@@ -4877,8 +4880,8 @@
       </c>
     </row>
     <row r="35" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A35" s="5" t="s">
-        <v>33</v>
+      <c r="A35" s="6" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="7">
         <v>0</v>
@@ -4895,14 +4898,14 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="7">
-        <v>0</v>
-      </c>
-      <c r="H35" s="7">
-        <v>0</v>
-      </c>
-      <c r="I35" s="7">
-        <v>0</v>
+      <c r="G35" s="10">
+        <v>2</v>
+      </c>
+      <c r="H35" s="11">
+        <v>0</v>
+      </c>
+      <c r="I35" s="10">
+        <v>4</v>
       </c>
       <c r="J35" s="7">
         <v>0</v>
@@ -4926,25 +4929,25 @@
         <v>0</v>
       </c>
       <c r="Q35" s="13">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="R35" s="13">
         <v>0</v>
       </c>
-      <c r="S35" s="18">
-        <v>0</v>
+      <c r="S35" s="10">
+        <v>1</v>
       </c>
       <c r="T35" s="10">
         <v>0</v>
       </c>
       <c r="U35" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="13">
         <v>0</v>
       </c>
-      <c r="W35" s="21">
-        <v>0</v>
+      <c r="W35" s="10">
+        <v>1.25</v>
       </c>
       <c r="X35" s="13">
         <v>0</v>
@@ -4963,11 +4966,11 @@
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="13"/>
-      <c r="AE35" s="13">
-        <v>0</v>
+      <c r="AE35" s="11">
+        <v>3</v>
       </c>
       <c r="AF35" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AG35" s="13">
         <v>0</v>
@@ -4978,11 +4981,11 @@
       <c r="AI35" s="13">
         <v>0</v>
       </c>
-      <c r="AJ35" s="13">
-        <v>0</v>
+      <c r="AJ35" s="23">
+        <v>46</v>
       </c>
       <c r="AK35" s="13">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="AL35" s="13">
         <v>0</v>
@@ -4999,7 +5002,7 @@
     </row>
     <row r="36" spans="1:41" ht="15.75" thickBot="1">
       <c r="A36" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="7">
         <v>0</v>
@@ -5120,7 +5123,7 @@
     </row>
     <row r="37" spans="1:41" ht="15.75" thickBot="1">
       <c r="A37" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="7">
         <v>0</v>
@@ -5138,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="G37" s="7">
-        <v>2</v>
-      </c>
-      <c r="H37" s="11">
+        <v>0</v>
+      </c>
+      <c r="H37" s="7">
         <v>0</v>
       </c>
       <c r="I37" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J37" s="7">
         <v>0</v>
@@ -5168,7 +5171,7 @@
         <v>0</v>
       </c>
       <c r="Q37" s="13">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R37" s="13">
         <v>0</v>
@@ -5180,13 +5183,13 @@
         <v>0</v>
       </c>
       <c r="U37" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37" s="13">
         <v>0</v>
       </c>
       <c r="W37" s="21">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X37" s="13">
         <v>0</v>
@@ -5206,10 +5209,10 @@
       <c r="AC37" s="13"/>
       <c r="AD37" s="13"/>
       <c r="AE37" s="13">
-        <v>27</v>
-      </c>
-      <c r="AF37" s="11">
-        <v>11</v>
+        <v>0</v>
+      </c>
+      <c r="AF37" s="13">
+        <v>0</v>
       </c>
       <c r="AG37" s="13">
         <v>0</v>
@@ -5220,11 +5223,11 @@
       <c r="AI37" s="13">
         <v>0</v>
       </c>
-      <c r="AJ37" s="23">
-        <v>26</v>
+      <c r="AJ37" s="13">
+        <v>0</v>
       </c>
       <c r="AK37" s="13">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="AL37" s="13">
         <v>0</v>
@@ -5241,7 +5244,7 @@
     </row>
     <row r="38" spans="1:41" ht="15.75" thickBot="1">
       <c r="A38" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="7">
         <v>0</v>
@@ -5259,13 +5262,13 @@
         <v>0</v>
       </c>
       <c r="G38" s="7">
-        <v>0</v>
-      </c>
-      <c r="H38" s="7">
+        <v>2</v>
+      </c>
+      <c r="H38" s="11">
         <v>0</v>
       </c>
       <c r="I38" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J38" s="7">
         <v>0</v>
@@ -5289,25 +5292,25 @@
         <v>0</v>
       </c>
       <c r="Q38" s="13">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="R38" s="13">
         <v>0</v>
       </c>
-      <c r="S38" s="11">
+      <c r="S38" s="18">
         <v>0</v>
       </c>
       <c r="T38" s="10">
         <v>0</v>
       </c>
       <c r="U38" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" s="13">
         <v>0</v>
       </c>
       <c r="W38" s="21">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X38" s="13">
         <v>0</v>
@@ -5327,10 +5330,10 @@
       <c r="AC38" s="13"/>
       <c r="AD38" s="13"/>
       <c r="AE38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="13">
-        <v>0</v>
+        <v>27</v>
+      </c>
+      <c r="AF38" s="11">
+        <v>11</v>
       </c>
       <c r="AG38" s="13">
         <v>0</v>
@@ -5341,11 +5344,11 @@
       <c r="AI38" s="13">
         <v>0</v>
       </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
+      <c r="AJ38" s="23">
+        <v>26</v>
       </c>
       <c r="AK38" s="13">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="AL38" s="13">
         <v>0</v>
@@ -5362,7 +5365,7 @@
     </row>
     <row r="39" spans="1:41" ht="15.75" thickBot="1">
       <c r="A39" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="7">
         <v>0</v>
@@ -5380,13 +5383,13 @@
         <v>0</v>
       </c>
       <c r="G39" s="7">
-        <v>2</v>
-      </c>
-      <c r="H39" s="12">
+        <v>0</v>
+      </c>
+      <c r="H39" s="7">
         <v>0</v>
       </c>
       <c r="I39" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J39" s="7">
         <v>0</v>
@@ -5397,7 +5400,7 @@
       <c r="L39" s="7">
         <v>0</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="13">
         <v>0</v>
       </c>
       <c r="N39" s="13">
@@ -5409,14 +5412,14 @@
       <c r="P39" s="13">
         <v>0</v>
       </c>
-      <c r="Q39" s="11">
-        <v>116</v>
+      <c r="Q39" s="13">
+        <v>0</v>
       </c>
       <c r="R39" s="13">
         <v>0</v>
       </c>
-      <c r="S39" s="19">
-        <v>1</v>
+      <c r="S39" s="11">
+        <v>0</v>
       </c>
       <c r="T39" s="10">
         <v>0</v>
@@ -5427,8 +5430,8 @@
       <c r="V39" s="13">
         <v>0</v>
       </c>
-      <c r="W39" s="22">
-        <v>1.5</v>
+      <c r="W39" s="21">
+        <v>0</v>
       </c>
       <c r="X39" s="13">
         <v>0</v>
@@ -5462,10 +5465,10 @@
       <c r="AI39" s="13">
         <v>0</v>
       </c>
-      <c r="AJ39" s="14">
-        <v>0</v>
-      </c>
-      <c r="AK39" s="14">
+      <c r="AJ39" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="13">
         <v>0</v>
       </c>
       <c r="AL39" s="13">
@@ -5483,7 +5486,7 @@
     </row>
     <row r="40" spans="1:41" ht="15.75" thickBot="1">
       <c r="A40" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="7">
         <v>0</v>
@@ -5501,13 +5504,13 @@
         <v>0</v>
       </c>
       <c r="G40" s="7">
-        <v>0</v>
-      </c>
-      <c r="H40" s="7">
+        <v>2</v>
+      </c>
+      <c r="H40" s="12">
         <v>0</v>
       </c>
       <c r="I40" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J40" s="7">
         <v>0</v>
@@ -5518,7 +5521,7 @@
       <c r="L40" s="7">
         <v>0</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="14">
         <v>0</v>
       </c>
       <c r="N40" s="13">
@@ -5530,14 +5533,14 @@
       <c r="P40" s="13">
         <v>0</v>
       </c>
-      <c r="Q40" s="13">
-        <v>0</v>
+      <c r="Q40" s="11">
+        <v>116</v>
       </c>
       <c r="R40" s="13">
         <v>0</v>
       </c>
-      <c r="S40" s="18">
-        <v>0</v>
+      <c r="S40" s="19">
+        <v>1</v>
       </c>
       <c r="T40" s="10">
         <v>0</v>
@@ -5548,8 +5551,8 @@
       <c r="V40" s="13">
         <v>0</v>
       </c>
-      <c r="W40" s="21">
-        <v>0</v>
+      <c r="W40" s="22">
+        <v>1.5</v>
       </c>
       <c r="X40" s="13">
         <v>0</v>
@@ -5583,10 +5586,10 @@
       <c r="AI40" s="13">
         <v>0</v>
       </c>
-      <c r="AJ40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK40" s="13">
+      <c r="AJ40" s="14">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="14">
         <v>0</v>
       </c>
       <c r="AL40" s="13">
@@ -5604,7 +5607,7 @@
     </row>
     <row r="41" spans="1:41" ht="15.75" thickBot="1">
       <c r="A41" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="7">
         <v>0</v>
@@ -5725,7 +5728,7 @@
     </row>
     <row r="42" spans="1:41" ht="15.75" thickBot="1">
       <c r="A42" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="7">
         <v>0</v>
@@ -5846,7 +5849,7 @@
     </row>
     <row r="43" spans="1:41" ht="15.75" thickBot="1">
       <c r="A43" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="7">
         <v>0</v>
@@ -5967,7 +5970,7 @@
     </row>
     <row r="44" spans="1:41" ht="15.75" thickBot="1">
       <c r="A44" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="7">
         <v>0</v>
@@ -5985,13 +5988,13 @@
         <v>0</v>
       </c>
       <c r="G44" s="7">
-        <v>2</v>
-      </c>
-      <c r="H44" s="12">
+        <v>0</v>
+      </c>
+      <c r="H44" s="7">
         <v>0</v>
       </c>
       <c r="I44" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J44" s="7">
         <v>0</v>
@@ -6002,40 +6005,40 @@
       <c r="L44" s="7">
         <v>0</v>
       </c>
-      <c r="M44" s="14">
-        <v>0</v>
-      </c>
-      <c r="N44" s="14">
-        <v>2</v>
+      <c r="M44" s="13">
+        <v>0</v>
+      </c>
+      <c r="N44" s="13">
+        <v>0</v>
       </c>
       <c r="O44" s="13">
         <v>0</v>
       </c>
-      <c r="P44" s="14">
-        <v>21</v>
-      </c>
-      <c r="Q44" s="14">
-        <v>210</v>
+      <c r="P44" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <v>0</v>
       </c>
       <c r="R44" s="13">
         <v>0</v>
       </c>
-      <c r="S44" s="11">
-        <v>0</v>
-      </c>
-      <c r="T44" s="13">
+      <c r="S44" s="18">
+        <v>0</v>
+      </c>
+      <c r="T44" s="10">
         <v>0</v>
       </c>
       <c r="U44" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V44" s="13">
         <v>0</v>
       </c>
-      <c r="W44" s="22">
-        <v>0</v>
-      </c>
-      <c r="X44" s="14">
+      <c r="W44" s="21">
+        <v>0</v>
+      </c>
+      <c r="X44" s="13">
         <v>0</v>
       </c>
       <c r="Y44" s="13">
@@ -6044,19 +6047,19 @@
       <c r="Z44" s="13">
         <v>0</v>
       </c>
-      <c r="AA44" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB44" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC44" s="19"/>
-      <c r="AD44" s="19"/>
-      <c r="AE44" s="14">
-        <v>63</v>
-      </c>
-      <c r="AF44" s="14">
-        <v>23</v>
+      <c r="AA44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="13"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="13">
+        <v>0</v>
       </c>
       <c r="AG44" s="13">
         <v>0</v>
@@ -6067,11 +6070,11 @@
       <c r="AI44" s="13">
         <v>0</v>
       </c>
-      <c r="AJ44" s="14">
-        <v>73</v>
-      </c>
-      <c r="AK44" s="14">
-        <v>73</v>
+      <c r="AJ44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="13">
+        <v>0</v>
       </c>
       <c r="AL44" s="13">
         <v>0</v>
@@ -6088,7 +6091,7 @@
     </row>
     <row r="45" spans="1:41" ht="15.75" thickBot="1">
       <c r="A45" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="7">
         <v>0</v>
@@ -6136,10 +6139,10 @@
         <v>21</v>
       </c>
       <c r="Q45" s="14">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="R45" s="13">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S45" s="11">
         <v>0</v>
@@ -6168,16 +6171,16 @@
       <c r="AA45" s="14">
         <v>0</v>
       </c>
-      <c r="AB45" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="13"/>
-      <c r="AD45" s="13"/>
+      <c r="AB45" s="19">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
       <c r="AE45" s="14">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="AF45" s="14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AG45" s="13">
         <v>0</v>
@@ -6189,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="14">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AK45" s="14">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AL45" s="13">
         <v>0</v>
@@ -6209,7 +6212,7 @@
     </row>
     <row r="46" spans="1:41" ht="15.75" thickBot="1">
       <c r="A46" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="7">
         <v>0</v>
@@ -6220,11 +6223,11 @@
       <c r="D46" s="7">
         <v>0</v>
       </c>
-      <c r="E46" s="11">
-        <v>0</v>
-      </c>
-      <c r="F46" s="10">
-        <v>2</v>
+      <c r="E46" s="7">
+        <v>0</v>
+      </c>
+      <c r="F46" s="7">
+        <v>0</v>
       </c>
       <c r="G46" s="7">
         <v>2</v>
@@ -6257,10 +6260,10 @@
         <v>21</v>
       </c>
       <c r="Q46" s="14">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="R46" s="13">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="S46" s="11">
         <v>0</v>
@@ -6295,10 +6298,10 @@
       <c r="AC46" s="13"/>
       <c r="AD46" s="13"/>
       <c r="AE46" s="14">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="AF46" s="14">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG46" s="13">
         <v>0</v>
@@ -6310,10 +6313,10 @@
         <v>0</v>
       </c>
       <c r="AJ46" s="14">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AK46" s="14">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AL46" s="13">
         <v>0</v>
@@ -6330,7 +6333,7 @@
     </row>
     <row r="47" spans="1:41" ht="15.75" thickBot="1">
       <c r="A47" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="7">
         <v>0</v>
@@ -6369,7 +6372,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O47" s="13">
         <v>0</v>
@@ -6378,19 +6381,19 @@
         <v>21</v>
       </c>
       <c r="Q47" s="14">
-        <v>148</v>
+        <v>210</v>
       </c>
       <c r="R47" s="13">
         <v>0</v>
       </c>
-      <c r="S47" s="18">
+      <c r="S47" s="11">
         <v>0</v>
       </c>
       <c r="T47" s="13">
         <v>0</v>
       </c>
       <c r="U47" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V47" s="13">
         <v>0</v>
@@ -6416,10 +6419,10 @@
       <c r="AC47" s="13"/>
       <c r="AD47" s="13"/>
       <c r="AE47" s="14">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="AF47" s="14">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="AG47" s="13">
         <v>0</v>
@@ -6431,10 +6434,10 @@
         <v>0</v>
       </c>
       <c r="AJ47" s="14">
-        <v>45</v>
+        <v>73</v>
       </c>
       <c r="AK47" s="14">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="AL47" s="13">
         <v>0</v>
@@ -6450,8 +6453,8 @@
       </c>
     </row>
     <row r="48" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A48" s="6" t="s">
-        <v>46</v>
+      <c r="A48" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="B48" s="7">
         <v>0</v>
@@ -6465,7 +6468,7 @@
       <c r="E48" s="11">
         <v>0</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F48" s="10">
         <v>2</v>
       </c>
       <c r="G48" s="7">
@@ -6490,7 +6493,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O48" s="13">
         <v>0</v>
@@ -6499,19 +6502,19 @@
         <v>21</v>
       </c>
       <c r="Q48" s="14">
-        <v>210</v>
+        <v>148</v>
       </c>
       <c r="R48" s="13">
         <v>0</v>
       </c>
-      <c r="S48" s="11">
+      <c r="S48" s="18">
         <v>0</v>
       </c>
       <c r="T48" s="13">
         <v>0</v>
       </c>
       <c r="U48" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V48" s="13">
         <v>0</v>
@@ -6526,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="Z48" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="14">
         <v>0</v>
@@ -6537,10 +6540,10 @@
       <c r="AC48" s="13"/>
       <c r="AD48" s="13"/>
       <c r="AE48" s="14">
-        <v>61.5</v>
+        <v>43</v>
       </c>
       <c r="AF48" s="14">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AG48" s="13">
         <v>0</v>
@@ -6552,10 +6555,10 @@
         <v>0</v>
       </c>
       <c r="AJ48" s="14">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AK48" s="14">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="AL48" s="13">
         <v>0</v>
@@ -6572,7 +6575,7 @@
     </row>
     <row r="49" spans="1:41" ht="15.75" thickBot="1">
       <c r="A49" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="7">
         <v>0</v>
@@ -6583,20 +6586,20 @@
       <c r="D49" s="7">
         <v>0</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E49" s="11">
         <v>0</v>
       </c>
       <c r="F49" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49" s="7">
-        <v>0</v>
-      </c>
-      <c r="H49" s="7">
+        <v>2</v>
+      </c>
+      <c r="H49" s="12">
         <v>0</v>
       </c>
       <c r="I49" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J49" s="7">
         <v>0</v>
@@ -6607,49 +6610,49 @@
       <c r="L49" s="7">
         <v>0</v>
       </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-      <c r="N49" s="13">
-        <v>0</v>
+      <c r="M49" s="14">
+        <v>0</v>
+      </c>
+      <c r="N49" s="14">
+        <v>2</v>
       </c>
       <c r="O49" s="13">
         <v>0</v>
       </c>
-      <c r="P49" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="13">
-        <v>0</v>
+      <c r="P49" s="14">
+        <v>21</v>
+      </c>
+      <c r="Q49" s="14">
+        <v>210</v>
       </c>
       <c r="R49" s="13">
         <v>0</v>
       </c>
-      <c r="S49" s="18">
+      <c r="S49" s="11">
         <v>0</v>
       </c>
       <c r="T49" s="13">
         <v>0</v>
       </c>
       <c r="U49" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="13">
         <v>0</v>
       </c>
-      <c r="W49" s="21">
-        <v>0</v>
-      </c>
-      <c r="X49" s="13">
+      <c r="W49" s="22">
+        <v>0</v>
+      </c>
+      <c r="X49" s="14">
         <v>0</v>
       </c>
       <c r="Y49" s="13">
         <v>0</v>
       </c>
       <c r="Z49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA49" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="14">
         <v>0</v>
       </c>
       <c r="AB49" s="13">
@@ -6657,11 +6660,11 @@
       </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="13"/>
-      <c r="AE49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF49" s="13">
-        <v>0</v>
+      <c r="AE49" s="14">
+        <v>61.5</v>
+      </c>
+      <c r="AF49" s="14">
+        <v>30</v>
       </c>
       <c r="AG49" s="13">
         <v>0</v>
@@ -6672,11 +6675,11 @@
       <c r="AI49" s="13">
         <v>0</v>
       </c>
-      <c r="AJ49" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK49" s="13">
-        <v>0</v>
+      <c r="AJ49" s="14">
+        <v>72</v>
+      </c>
+      <c r="AK49" s="14">
+        <v>72</v>
       </c>
       <c r="AL49" s="13">
         <v>0</v>
@@ -6693,7 +6696,7 @@
     </row>
     <row r="50" spans="1:41" ht="15.75" thickBot="1">
       <c r="A50" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="7">
         <v>0</v>
@@ -6814,54 +6817,54 @@
     </row>
     <row r="51" spans="1:41" ht="15.75" thickBot="1">
       <c r="A51" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" s="10">
-        <v>0</v>
-      </c>
-      <c r="C51" s="10">
-        <v>0</v>
-      </c>
-      <c r="D51" s="10">
-        <v>0</v>
-      </c>
-      <c r="E51" s="10">
-        <v>0</v>
-      </c>
-      <c r="F51" s="10">
-        <v>0</v>
-      </c>
-      <c r="G51" s="8">
-        <v>0</v>
-      </c>
-      <c r="H51" s="8">
-        <v>0</v>
-      </c>
-      <c r="I51" s="8">
-        <v>0</v>
-      </c>
-      <c r="J51" s="10">
-        <v>1</v>
-      </c>
-      <c r="K51" s="10">
-        <v>1</v>
-      </c>
-      <c r="L51" s="10">
-        <v>1</v>
-      </c>
-      <c r="M51" s="16">
-        <v>0</v>
-      </c>
-      <c r="N51" s="14">
-        <v>6</v>
+        <v>48</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0</v>
+      </c>
+      <c r="C51" s="7">
+        <v>0</v>
+      </c>
+      <c r="D51" s="7">
+        <v>0</v>
+      </c>
+      <c r="E51" s="7">
+        <v>0</v>
+      </c>
+      <c r="F51" s="7">
+        <v>0</v>
+      </c>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
+      <c r="H51" s="7">
+        <v>0</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="7">
+        <v>0</v>
+      </c>
+      <c r="K51" s="7">
+        <v>0</v>
+      </c>
+      <c r="L51" s="7">
+        <v>0</v>
+      </c>
+      <c r="M51" s="15">
+        <v>0</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0</v>
       </c>
       <c r="O51" s="13">
         <v>0</v>
       </c>
-      <c r="P51" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="14">
+      <c r="P51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="13">
         <v>0</v>
       </c>
       <c r="R51" s="13">
@@ -6874,24 +6877,24 @@
         <v>0</v>
       </c>
       <c r="U51" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V51" s="13">
         <v>0</v>
       </c>
-      <c r="W51" s="22">
-        <v>0</v>
-      </c>
-      <c r="X51" s="14">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="12">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="14">
+      <c r="W51" s="21">
+        <v>0</v>
+      </c>
+      <c r="X51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="13">
         <v>0</v>
       </c>
       <c r="AB51" s="13">
@@ -6899,11 +6902,11 @@
       </c>
       <c r="AC51" s="13"/>
       <c r="AD51" s="13"/>
-      <c r="AE51" s="14">
-        <v>6</v>
-      </c>
-      <c r="AF51" s="14">
-        <v>2</v>
+      <c r="AE51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="13">
+        <v>0</v>
       </c>
       <c r="AG51" s="13">
         <v>0</v>
@@ -6914,11 +6917,11 @@
       <c r="AI51" s="13">
         <v>0</v>
       </c>
-      <c r="AJ51" s="12">
-        <v>6</v>
-      </c>
-      <c r="AK51" s="14">
-        <v>7</v>
+      <c r="AJ51" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="13">
+        <v>0</v>
       </c>
       <c r="AL51" s="13">
         <v>0</v>
@@ -6935,7 +6938,7 @@
     </row>
     <row r="52" spans="1:41" ht="15.75" thickBot="1">
       <c r="A52" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="10">
         <v>0</v>
@@ -6947,10 +6950,10 @@
         <v>0</v>
       </c>
       <c r="E52" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G52" s="8">
         <v>0</v>
@@ -6974,16 +6977,16 @@
         <v>0</v>
       </c>
       <c r="N52" s="14">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="O52" s="13">
         <v>0</v>
       </c>
       <c r="P52" s="14">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="14">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="R52" s="13">
         <v>0</v>
@@ -6995,7 +6998,7 @@
         <v>0</v>
       </c>
       <c r="U52" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V52" s="13">
         <v>0</v>
@@ -7004,10 +7007,10 @@
         <v>0</v>
       </c>
       <c r="X52" s="14">
-        <v>26</v>
-      </c>
-      <c r="Y52" s="14">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="Y52" s="12">
+        <v>0</v>
       </c>
       <c r="Z52" s="14">
         <v>0</v>
@@ -7021,10 +7024,10 @@
       <c r="AC52" s="13"/>
       <c r="AD52" s="13"/>
       <c r="AE52" s="14">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="AF52" s="14">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="AG52" s="13">
         <v>0</v>
@@ -7036,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="AJ52" s="12">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="AK52" s="14">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="AL52" s="13">
         <v>0</v>
@@ -7056,22 +7059,22 @@
     </row>
     <row r="53" spans="1:41" ht="15.75" thickBot="1">
       <c r="A53" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="10">
+        <v>0</v>
+      </c>
+      <c r="C53" s="10">
+        <v>0</v>
+      </c>
+      <c r="D53" s="10">
+        <v>0</v>
+      </c>
+      <c r="E53" s="10">
         <v>2</v>
       </c>
-      <c r="C53" s="10">
-        <v>4</v>
-      </c>
-      <c r="D53" s="10">
-        <v>4</v>
-      </c>
-      <c r="E53" s="10">
-        <v>0</v>
-      </c>
       <c r="F53" s="10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G53" s="8">
         <v>0</v>
@@ -7083,28 +7086,28 @@
         <v>0</v>
       </c>
       <c r="J53" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K53" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L53" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M53" s="16">
         <v>0</v>
       </c>
       <c r="N53" s="14">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="O53" s="13">
         <v>0</v>
       </c>
       <c r="P53" s="14">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="Q53" s="14">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="R53" s="13">
         <v>0</v>
@@ -7125,10 +7128,10 @@
         <v>0</v>
       </c>
       <c r="X53" s="14">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="Y53" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z53" s="14">
         <v>0</v>
@@ -7142,36 +7145,157 @@
       <c r="AC53" s="13"/>
       <c r="AD53" s="13"/>
       <c r="AE53" s="14">
+        <v>73</v>
+      </c>
+      <c r="AF53" s="14">
+        <v>22</v>
+      </c>
+      <c r="AG53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="12">
+        <v>64</v>
+      </c>
+      <c r="AK53" s="14">
+        <v>65</v>
+      </c>
+      <c r="AL53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:41" ht="15.75" thickBot="1">
+      <c r="A54" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="10">
+        <v>2</v>
+      </c>
+      <c r="C54" s="10">
+        <v>4</v>
+      </c>
+      <c r="D54" s="10">
+        <v>4</v>
+      </c>
+      <c r="E54" s="10">
+        <v>0</v>
+      </c>
+      <c r="F54" s="10">
+        <v>0</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0</v>
+      </c>
+      <c r="H54" s="8">
+        <v>0</v>
+      </c>
+      <c r="I54" s="8">
+        <v>0</v>
+      </c>
+      <c r="J54" s="10">
+        <v>2</v>
+      </c>
+      <c r="K54" s="10">
+        <v>2</v>
+      </c>
+      <c r="L54" s="10">
+        <v>2</v>
+      </c>
+      <c r="M54" s="16">
+        <v>0</v>
+      </c>
+      <c r="N54" s="14">
+        <v>16</v>
+      </c>
+      <c r="O54" s="13">
+        <v>0</v>
+      </c>
+      <c r="P54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>0</v>
+      </c>
+      <c r="R54" s="13">
+        <v>0</v>
+      </c>
+      <c r="S54" s="18">
+        <v>0</v>
+      </c>
+      <c r="T54" s="13">
+        <v>0</v>
+      </c>
+      <c r="U54" s="13">
+        <v>0</v>
+      </c>
+      <c r="V54" s="13">
+        <v>0</v>
+      </c>
+      <c r="W54" s="22">
+        <v>0</v>
+      </c>
+      <c r="X54" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y54" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="13"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="14">
         <v>11.75</v>
       </c>
-      <c r="AF53" s="14">
+      <c r="AF54" s="14">
         <v>3</v>
       </c>
-      <c r="AG53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ53" s="12">
+      <c r="AG54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="12">
         <v>15</v>
       </c>
-      <c r="AK53" s="14">
+      <c r="AK54" s="14">
         <v>11</v>
       </c>
-      <c r="AL53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN53" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO53" s="13">
+      <c r="AL54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="13">
         <v>0</v>
       </c>
     </row>

--- a/storage/app/iprs/1/week_5.xlsx
+++ b/storage/app/iprs/1/week_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Smoku\Pfron\pfron-backend\storage\app\iprs\1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B49C90-6175-45AB-AA2E-055AF0FEE397}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0A98939-798C-408D-AB60-FB3C2A911274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>id</t>
   </si>
@@ -191,6 +191,12 @@
   <si>
     <t>M1-W022</t>
   </si>
+  <si>
+    <t>M1-W053</t>
+  </si>
+  <si>
+    <t>M1-W055</t>
+  </si>
 </sst>
 </file>
 
@@ -229,7 +235,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,8 +290,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -381,11 +393,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -455,6 +497,27 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -745,20 +808,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AMJ54"/>
+  <dimension ref="A1:AMI1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="S14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AE27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="W24" sqref="W24"/>
+      <selection pane="bottomRight" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="1024" width="9" style="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="2" max="1023" width="9" style="1"/>
+    <col min="1024" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" thickBot="1">
@@ -4935,7 +4998,7 @@
         <v>0</v>
       </c>
       <c r="S35" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T35" s="10">
         <v>0</v>
@@ -4947,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="W35" s="10">
-        <v>1.25</v>
+        <v>4.25</v>
       </c>
       <c r="X35" s="13">
         <v>0</v>
@@ -5310,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="21">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="X38" s="13">
         <v>0</v>
@@ -6127,7 +6190,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N45" s="14">
         <v>2</v>
@@ -6157,7 +6220,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X45" s="14">
         <v>0</v>
@@ -6278,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X46" s="14">
         <v>0</v>
@@ -6369,7 +6432,7 @@
         <v>0</v>
       </c>
       <c r="M47" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N47" s="14">
         <v>2</v>
@@ -6399,7 +6462,7 @@
         <v>0</v>
       </c>
       <c r="W47" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="X47" s="14">
         <v>0</v>
@@ -6520,7 +6583,7 @@
         <v>0</v>
       </c>
       <c r="W48" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X48" s="14">
         <v>0</v>
@@ -6573,7 +6636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:41" ht="15.75" thickBot="1">
+    <row r="49" spans="1:1023" ht="15.75" thickBot="1">
       <c r="A49" s="6" t="s">
         <v>46</v>
       </c>
@@ -6611,7 +6674,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N49" s="14">
         <v>2</v>
@@ -6641,7 +6704,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X49" s="14">
         <v>0</v>
@@ -6694,7 +6757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:41" ht="15.75" thickBot="1">
+    <row r="50" spans="1:1023" ht="15.75" thickBot="1">
       <c r="A50" s="6" t="s">
         <v>47</v>
       </c>
@@ -6815,7 +6878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:41" ht="15.75" thickBot="1">
+    <row r="51" spans="1:1023" ht="15.75" thickBot="1">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -6936,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:41" ht="15.75" thickBot="1">
+    <row r="52" spans="1:1023" ht="15.75" thickBot="1">
       <c r="A52" s="6" t="s">
         <v>49</v>
       </c>
@@ -6974,7 +7037,7 @@
         <v>1</v>
       </c>
       <c r="M52" s="16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N52" s="14">
         <v>6</v>
@@ -7004,7 +7067,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X52" s="14">
         <v>0</v>
@@ -7057,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:41" ht="15.75" thickBot="1">
+    <row r="53" spans="1:1023" ht="15.75" thickBot="1">
       <c r="A53" s="6" t="s">
         <v>50</v>
       </c>
@@ -7095,7 +7158,7 @@
         <v>1</v>
       </c>
       <c r="M53" s="16">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N53" s="14">
         <v>23</v>
@@ -7113,7 +7176,7 @@
         <v>0</v>
       </c>
       <c r="S53" s="18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T53" s="13">
         <v>0</v>
@@ -7125,7 +7188,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X53" s="14">
         <v>26</v>
@@ -7178,126 +7241,3210 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:41" ht="15.75" thickBot="1">
-      <c r="A54" s="6" t="s">
+    <row r="54" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A54" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="27">
+        <v>2</v>
+      </c>
+      <c r="C54" s="27">
+        <v>4</v>
+      </c>
+      <c r="D54" s="27">
+        <v>4</v>
+      </c>
+      <c r="E54" s="27">
+        <v>0</v>
+      </c>
+      <c r="F54" s="27">
+        <v>0</v>
+      </c>
+      <c r="G54" s="26">
+        <v>0</v>
+      </c>
+      <c r="H54" s="26">
+        <v>0</v>
+      </c>
+      <c r="I54" s="26">
+        <v>0</v>
+      </c>
+      <c r="J54" s="27">
+        <v>1</v>
+      </c>
+      <c r="K54" s="27">
+        <v>1</v>
+      </c>
+      <c r="L54" s="27">
+        <v>1</v>
+      </c>
+      <c r="M54" s="27">
+        <v>0</v>
+      </c>
+      <c r="N54" s="28">
+        <v>0</v>
+      </c>
+      <c r="O54" s="9">
+        <v>0</v>
+      </c>
+      <c r="P54" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="28">
+        <v>0</v>
+      </c>
+      <c r="R54" s="9">
+        <v>0</v>
+      </c>
+      <c r="S54" s="9">
+        <v>0</v>
+      </c>
+      <c r="T54" s="17">
+        <v>0</v>
+      </c>
+      <c r="U54" s="9">
+        <v>0</v>
+      </c>
+      <c r="V54" s="9">
+        <v>0</v>
+      </c>
+      <c r="W54" s="9">
+        <v>0</v>
+      </c>
+      <c r="X54" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="28">
+        <v>3</v>
+      </c>
+      <c r="AK54" s="28">
+        <v>3</v>
+      </c>
+      <c r="AL54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="9">
+        <v>0</v>
+      </c>
+      <c r="AMH54" s="2"/>
+      <c r="AMI54" s="2"/>
+    </row>
+    <row r="55" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A55" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="10">
+      <c r="B55" s="10">
         <v>2</v>
       </c>
-      <c r="C54" s="10">
+      <c r="C55" s="10">
         <v>4</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D55" s="10">
         <v>4</v>
       </c>
-      <c r="E54" s="10">
-        <v>0</v>
-      </c>
-      <c r="F54" s="10">
-        <v>0</v>
-      </c>
-      <c r="G54" s="8">
-        <v>0</v>
-      </c>
-      <c r="H54" s="8">
-        <v>0</v>
-      </c>
-      <c r="I54" s="8">
-        <v>0</v>
-      </c>
-      <c r="J54" s="10">
+      <c r="E55" s="10">
+        <v>0</v>
+      </c>
+      <c r="F55" s="10">
+        <v>0</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0</v>
+      </c>
+      <c r="H55" s="8">
+        <v>0</v>
+      </c>
+      <c r="I55" s="8">
+        <v>0</v>
+      </c>
+      <c r="J55" s="10">
         <v>2</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K55" s="10">
         <v>2</v>
       </c>
-      <c r="L54" s="10">
+      <c r="L55" s="10">
         <v>2</v>
       </c>
-      <c r="M54" s="16">
-        <v>0</v>
-      </c>
-      <c r="N54" s="14">
+      <c r="M55" s="16">
+        <v>5</v>
+      </c>
+      <c r="N55" s="14">
         <v>16</v>
       </c>
-      <c r="O54" s="13">
-        <v>0</v>
-      </c>
-      <c r="P54" s="14">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="14">
-        <v>0</v>
-      </c>
-      <c r="R54" s="13">
-        <v>0</v>
-      </c>
-      <c r="S54" s="18">
-        <v>0</v>
-      </c>
-      <c r="T54" s="13">
-        <v>0</v>
-      </c>
-      <c r="U54" s="13">
-        <v>0</v>
-      </c>
-      <c r="V54" s="13">
-        <v>0</v>
-      </c>
-      <c r="W54" s="22">
-        <v>0</v>
-      </c>
-      <c r="X54" s="14">
+      <c r="O55" s="13">
+        <v>0</v>
+      </c>
+      <c r="P55" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="14">
+        <v>0</v>
+      </c>
+      <c r="R55" s="13">
+        <v>0</v>
+      </c>
+      <c r="S55" s="18">
+        <v>0</v>
+      </c>
+      <c r="T55" s="13">
+        <v>0</v>
+      </c>
+      <c r="U55" s="13">
+        <v>0</v>
+      </c>
+      <c r="V55" s="13">
+        <v>0</v>
+      </c>
+      <c r="W55" s="22">
         <v>2</v>
       </c>
-      <c r="Y54" s="14">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="14">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="13"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="14">
+      <c r="X55" s="14">
+        <v>2</v>
+      </c>
+      <c r="Y55" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="14">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="13"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="14">
         <v>11.75</v>
       </c>
-      <c r="AF54" s="14">
+      <c r="AF55" s="14">
         <v>3</v>
       </c>
-      <c r="AG54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="12">
+      <c r="AG55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="12">
         <v>15</v>
       </c>
-      <c r="AK54" s="14">
+      <c r="AK55" s="14">
         <v>11</v>
       </c>
-      <c r="AL54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO54" s="13">
-        <v>0</v>
-      </c>
+      <c r="AL55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="13">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A56" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="27">
+        <v>2</v>
+      </c>
+      <c r="C56" s="27">
+        <v>4</v>
+      </c>
+      <c r="D56" s="27">
+        <v>4</v>
+      </c>
+      <c r="E56" s="27">
+        <v>0</v>
+      </c>
+      <c r="F56" s="27">
+        <v>0</v>
+      </c>
+      <c r="G56" s="26">
+        <v>0</v>
+      </c>
+      <c r="H56" s="26">
+        <v>0</v>
+      </c>
+      <c r="I56" s="26">
+        <v>0</v>
+      </c>
+      <c r="J56" s="27">
+        <v>1</v>
+      </c>
+      <c r="K56" s="27">
+        <v>1</v>
+      </c>
+      <c r="L56" s="27">
+        <v>1</v>
+      </c>
+      <c r="M56" s="27">
+        <v>0</v>
+      </c>
+      <c r="N56" s="28">
+        <v>0</v>
+      </c>
+      <c r="O56" s="9">
+        <v>0</v>
+      </c>
+      <c r="P56" s="28">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="28">
+        <v>0</v>
+      </c>
+      <c r="R56" s="9">
+        <v>0</v>
+      </c>
+      <c r="S56" s="9">
+        <v>0</v>
+      </c>
+      <c r="T56" s="17">
+        <v>0</v>
+      </c>
+      <c r="U56" s="9">
+        <v>0</v>
+      </c>
+      <c r="V56" s="9">
+        <v>0</v>
+      </c>
+      <c r="W56" s="9">
+        <v>0</v>
+      </c>
+      <c r="X56" s="28">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="28">
+        <v>3</v>
+      </c>
+      <c r="AK56" s="28">
+        <v>3</v>
+      </c>
+      <c r="AL56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="9">
+        <v>0</v>
+      </c>
+      <c r="AMH56" s="2"/>
+      <c r="AMI56" s="2"/>
+    </row>
+    <row r="57" spans="1:1023">
+      <c r="AMI57" s="2"/>
+    </row>
+    <row r="58" spans="1:1023" ht="15" thickBot="1"/>
+    <row r="59" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A59" s="30"/>
+    </row>
+    <row r="60" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A60" s="30"/>
+    </row>
+    <row r="61" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A61" s="30"/>
+    </row>
+    <row r="62" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A62" s="30"/>
+    </row>
+    <row r="63" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A63" s="30"/>
+    </row>
+    <row r="64" spans="1:1023" ht="15.75" thickBot="1">
+      <c r="A64" s="30"/>
+    </row>
+    <row r="65" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A65" s="30"/>
+    </row>
+    <row r="66" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A66" s="30"/>
+    </row>
+    <row r="67" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A67" s="30"/>
+    </row>
+    <row r="68" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A68" s="30"/>
+    </row>
+    <row r="69" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A69" s="30"/>
+    </row>
+    <row r="70" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A70" s="30"/>
+    </row>
+    <row r="71" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A71" s="30"/>
+    </row>
+    <row r="72" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A72" s="30"/>
+    </row>
+    <row r="73" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A73" s="30"/>
+    </row>
+    <row r="74" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A74" s="30"/>
+    </row>
+    <row r="75" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A75" s="30"/>
+    </row>
+    <row r="76" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A76" s="30"/>
+    </row>
+    <row r="77" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A77" s="30"/>
+    </row>
+    <row r="78" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A78" s="30"/>
+    </row>
+    <row r="79" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A79" s="30"/>
+    </row>
+    <row r="80" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A80" s="30"/>
+    </row>
+    <row r="81" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A81" s="30"/>
+    </row>
+    <row r="82" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A82" s="30"/>
+    </row>
+    <row r="83" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A83" s="30"/>
+    </row>
+    <row r="84" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A84" s="30"/>
+    </row>
+    <row r="85" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A85" s="30"/>
+    </row>
+    <row r="86" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A86" s="30"/>
+    </row>
+    <row r="87" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A87" s="30"/>
+    </row>
+    <row r="88" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A88" s="30"/>
+    </row>
+    <row r="89" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A89" s="30"/>
+    </row>
+    <row r="90" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A90" s="30"/>
+    </row>
+    <row r="91" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A91" s="30"/>
+    </row>
+    <row r="92" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A92" s="30"/>
+    </row>
+    <row r="93" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A93" s="30"/>
+    </row>
+    <row r="94" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A94" s="30"/>
+    </row>
+    <row r="95" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A95" s="30"/>
+    </row>
+    <row r="96" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A96" s="30"/>
+    </row>
+    <row r="97" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A97" s="30"/>
+    </row>
+    <row r="98" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A98" s="30"/>
+    </row>
+    <row r="99" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A99" s="30"/>
+    </row>
+    <row r="100" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A100" s="30"/>
+    </row>
+    <row r="101" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A101" s="30"/>
+    </row>
+    <row r="102" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A102" s="30"/>
+    </row>
+    <row r="103" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A103" s="30"/>
+    </row>
+    <row r="104" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A104" s="30"/>
+    </row>
+    <row r="105" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A105" s="30"/>
+    </row>
+    <row r="106" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A106" s="30"/>
+    </row>
+    <row r="107" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A107" s="30"/>
+    </row>
+    <row r="108" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A108" s="30"/>
+    </row>
+    <row r="109" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A109" s="30"/>
+    </row>
+    <row r="110" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A110" s="30"/>
+    </row>
+    <row r="111" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A111" s="30"/>
+    </row>
+    <row r="112" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A112" s="30"/>
+    </row>
+    <row r="113" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A113" s="30"/>
+    </row>
+    <row r="114" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A114" s="30"/>
+    </row>
+    <row r="115" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A115" s="30"/>
+    </row>
+    <row r="116" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A116" s="30"/>
+    </row>
+    <row r="117" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A117" s="30"/>
+    </row>
+    <row r="118" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A118" s="30"/>
+    </row>
+    <row r="119" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A119" s="30"/>
+    </row>
+    <row r="120" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A120" s="30"/>
+    </row>
+    <row r="121" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A121" s="30"/>
+    </row>
+    <row r="122" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A122" s="30"/>
+    </row>
+    <row r="123" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A123" s="30"/>
+    </row>
+    <row r="124" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A124" s="30"/>
+    </row>
+    <row r="125" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A125" s="30"/>
+    </row>
+    <row r="126" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A126" s="30"/>
+    </row>
+    <row r="127" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A127" s="30"/>
+    </row>
+    <row r="128" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A128" s="30"/>
+    </row>
+    <row r="129" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A129" s="30"/>
+    </row>
+    <row r="130" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A130" s="30"/>
+    </row>
+    <row r="131" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A131" s="30"/>
+    </row>
+    <row r="132" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A132" s="30"/>
+    </row>
+    <row r="133" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A133" s="30"/>
+    </row>
+    <row r="134" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A134" s="30"/>
+    </row>
+    <row r="135" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A135" s="30"/>
+    </row>
+    <row r="136" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A136" s="30"/>
+    </row>
+    <row r="137" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A137" s="30"/>
+    </row>
+    <row r="138" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A138" s="30"/>
+    </row>
+    <row r="139" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A139" s="30"/>
+    </row>
+    <row r="140" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A140" s="30"/>
+    </row>
+    <row r="141" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A141" s="30"/>
+    </row>
+    <row r="142" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A142" s="30"/>
+    </row>
+    <row r="143" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A143" s="30"/>
+    </row>
+    <row r="144" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A144" s="30"/>
+    </row>
+    <row r="145" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A145" s="30"/>
+    </row>
+    <row r="146" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A146" s="30"/>
+    </row>
+    <row r="147" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A147" s="30"/>
+    </row>
+    <row r="148" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A148" s="30"/>
+    </row>
+    <row r="149" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A149" s="30"/>
+    </row>
+    <row r="150" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A150" s="30"/>
+    </row>
+    <row r="151" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A151" s="30"/>
+    </row>
+    <row r="152" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A152" s="30"/>
+    </row>
+    <row r="153" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A153" s="30"/>
+    </row>
+    <row r="154" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A154" s="30"/>
+    </row>
+    <row r="155" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A155" s="30"/>
+    </row>
+    <row r="156" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A156" s="30"/>
+    </row>
+    <row r="157" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A157" s="30"/>
+    </row>
+    <row r="158" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A158" s="30"/>
+    </row>
+    <row r="159" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A159" s="30"/>
+    </row>
+    <row r="160" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A160" s="30"/>
+    </row>
+    <row r="161" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A161" s="30"/>
+    </row>
+    <row r="162" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A162" s="30"/>
+    </row>
+    <row r="163" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A163" s="30"/>
+    </row>
+    <row r="164" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A164" s="30"/>
+    </row>
+    <row r="165" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A165" s="30"/>
+    </row>
+    <row r="166" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A166" s="30"/>
+    </row>
+    <row r="167" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A167" s="30"/>
+    </row>
+    <row r="168" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A168" s="30"/>
+    </row>
+    <row r="169" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A169" s="30"/>
+    </row>
+    <row r="170" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A170" s="30"/>
+    </row>
+    <row r="171" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A171" s="30"/>
+    </row>
+    <row r="172" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A172" s="30"/>
+    </row>
+    <row r="173" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A173" s="30"/>
+    </row>
+    <row r="174" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A174" s="30"/>
+    </row>
+    <row r="175" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A175" s="30"/>
+    </row>
+    <row r="176" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A176" s="30"/>
+    </row>
+    <row r="177" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A177" s="30"/>
+    </row>
+    <row r="178" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A178" s="30"/>
+    </row>
+    <row r="179" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A179" s="30"/>
+    </row>
+    <row r="180" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A180" s="30"/>
+    </row>
+    <row r="181" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A181" s="30"/>
+    </row>
+    <row r="182" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A182" s="30"/>
+    </row>
+    <row r="183" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A183" s="30"/>
+    </row>
+    <row r="184" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A184" s="30"/>
+    </row>
+    <row r="185" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A185" s="30"/>
+    </row>
+    <row r="186" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A186" s="30"/>
+    </row>
+    <row r="187" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A187" s="30"/>
+    </row>
+    <row r="188" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A188" s="30"/>
+    </row>
+    <row r="189" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A189" s="30"/>
+    </row>
+    <row r="190" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A190" s="30"/>
+    </row>
+    <row r="191" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A191" s="31"/>
+    </row>
+    <row r="192" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A192" s="31"/>
+    </row>
+    <row r="193" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A193" s="31"/>
+    </row>
+    <row r="194" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A194" s="31"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A195" s="31"/>
+    </row>
+    <row r="196" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A196" s="31"/>
+    </row>
+    <row r="197" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A197" s="31"/>
+    </row>
+    <row r="198" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A198" s="31"/>
+    </row>
+    <row r="199" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A199" s="31"/>
+    </row>
+    <row r="200" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A200" s="31"/>
+    </row>
+    <row r="201" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A201" s="31"/>
+    </row>
+    <row r="202" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A202" s="31"/>
+    </row>
+    <row r="203" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A203" s="31"/>
+    </row>
+    <row r="204" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A204" s="31"/>
+    </row>
+    <row r="205" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A205" s="31"/>
+    </row>
+    <row r="206" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A206" s="31"/>
+    </row>
+    <row r="207" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A207" s="31"/>
+    </row>
+    <row r="208" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A208" s="31"/>
+    </row>
+    <row r="209" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A209" s="31"/>
+    </row>
+    <row r="210" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A210" s="31"/>
+    </row>
+    <row r="211" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A211" s="31"/>
+    </row>
+    <row r="212" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A212" s="31"/>
+    </row>
+    <row r="213" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A213" s="31"/>
+    </row>
+    <row r="214" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A214" s="31"/>
+    </row>
+    <row r="215" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A215" s="31"/>
+    </row>
+    <row r="216" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A216" s="31"/>
+    </row>
+    <row r="217" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A217" s="31"/>
+    </row>
+    <row r="218" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A218" s="31"/>
+    </row>
+    <row r="219" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A219" s="31"/>
+    </row>
+    <row r="220" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A220" s="31"/>
+    </row>
+    <row r="221" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A221" s="31"/>
+    </row>
+    <row r="222" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A222" s="31"/>
+    </row>
+    <row r="223" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A223" s="31"/>
+    </row>
+    <row r="224" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A224" s="31"/>
+    </row>
+    <row r="225" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A225" s="31"/>
+    </row>
+    <row r="226" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A226" s="31"/>
+    </row>
+    <row r="227" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A227" s="31"/>
+    </row>
+    <row r="228" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A228" s="31"/>
+    </row>
+    <row r="229" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A229" s="31"/>
+    </row>
+    <row r="230" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A230" s="31"/>
+    </row>
+    <row r="231" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A231" s="31"/>
+    </row>
+    <row r="232" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A232" s="31"/>
+    </row>
+    <row r="233" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A233" s="31"/>
+    </row>
+    <row r="234" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A234" s="31"/>
+    </row>
+    <row r="235" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A235" s="31"/>
+    </row>
+    <row r="236" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A236" s="31"/>
+    </row>
+    <row r="237" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A237" s="31"/>
+    </row>
+    <row r="238" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A238" s="31"/>
+    </row>
+    <row r="239" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A239" s="31"/>
+    </row>
+    <row r="240" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A240" s="31"/>
+    </row>
+    <row r="241" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A241" s="31"/>
+    </row>
+    <row r="242" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A242" s="31"/>
+    </row>
+    <row r="243" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A243" s="31"/>
+    </row>
+    <row r="244" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A244" s="31"/>
+    </row>
+    <row r="245" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A245" s="31"/>
+    </row>
+    <row r="246" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A246" s="31"/>
+    </row>
+    <row r="247" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A247" s="31"/>
+    </row>
+    <row r="248" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A248" s="31"/>
+    </row>
+    <row r="249" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A249" s="31"/>
+    </row>
+    <row r="250" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A250" s="31"/>
+    </row>
+    <row r="251" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A251" s="31"/>
+    </row>
+    <row r="252" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A252" s="31"/>
+    </row>
+    <row r="253" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A253" s="31"/>
+    </row>
+    <row r="254" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A254" s="31"/>
+    </row>
+    <row r="255" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A255" s="31"/>
+    </row>
+    <row r="256" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A256" s="31"/>
+    </row>
+    <row r="257" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A257" s="31"/>
+    </row>
+    <row r="258" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A258" s="31"/>
+    </row>
+    <row r="259" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A259" s="31"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A260" s="31"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A261" s="31"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A262" s="31"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A263" s="31"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A264" s="31"/>
+    </row>
+    <row r="265" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A265" s="31"/>
+    </row>
+    <row r="266" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A266" s="31"/>
+    </row>
+    <row r="267" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A267" s="31"/>
+    </row>
+    <row r="268" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A268" s="31"/>
+    </row>
+    <row r="269" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A269" s="31"/>
+    </row>
+    <row r="270" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A270" s="31"/>
+    </row>
+    <row r="271" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A271" s="31"/>
+    </row>
+    <row r="272" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A272" s="31"/>
+    </row>
+    <row r="273" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A273" s="31"/>
+    </row>
+    <row r="274" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A274" s="31"/>
+    </row>
+    <row r="275" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A275" s="31"/>
+    </row>
+    <row r="276" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A276" s="31"/>
+    </row>
+    <row r="277" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A277" s="31"/>
+    </row>
+    <row r="278" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A278" s="31"/>
+    </row>
+    <row r="279" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A279" s="31"/>
+    </row>
+    <row r="280" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A280" s="31"/>
+    </row>
+    <row r="281" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A281" s="31"/>
+    </row>
+    <row r="282" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A282" s="31"/>
+    </row>
+    <row r="283" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A283" s="31"/>
+    </row>
+    <row r="284" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A284" s="31"/>
+    </row>
+    <row r="285" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A285" s="31"/>
+    </row>
+    <row r="286" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A286" s="31"/>
+    </row>
+    <row r="287" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A287" s="31"/>
+    </row>
+    <row r="288" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A288" s="31"/>
+    </row>
+    <row r="289" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A289" s="31"/>
+    </row>
+    <row r="290" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A290" s="31"/>
+    </row>
+    <row r="291" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A291" s="31"/>
+    </row>
+    <row r="292" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A292" s="31"/>
+    </row>
+    <row r="293" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A293" s="31"/>
+    </row>
+    <row r="294" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A294" s="31"/>
+    </row>
+    <row r="295" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A295" s="31"/>
+    </row>
+    <row r="296" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A296" s="31"/>
+    </row>
+    <row r="297" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A297" s="31"/>
+    </row>
+    <row r="298" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A298" s="31"/>
+    </row>
+    <row r="299" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A299" s="31"/>
+    </row>
+    <row r="300" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A300" s="31"/>
+    </row>
+    <row r="301" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A301" s="31"/>
+    </row>
+    <row r="302" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A302" s="31"/>
+    </row>
+    <row r="303" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A303" s="31"/>
+    </row>
+    <row r="304" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A304" s="31"/>
+    </row>
+    <row r="305" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A305" s="31"/>
+    </row>
+    <row r="306" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A306" s="31"/>
+    </row>
+    <row r="307" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A307" s="31"/>
+    </row>
+    <row r="308" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A308" s="31"/>
+    </row>
+    <row r="309" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A309" s="31"/>
+    </row>
+    <row r="310" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A310" s="31"/>
+    </row>
+    <row r="311" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A311" s="31"/>
+    </row>
+    <row r="312" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A312" s="31"/>
+    </row>
+    <row r="313" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A313" s="31"/>
+    </row>
+    <row r="314" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A314" s="31"/>
+    </row>
+    <row r="315" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A315" s="31"/>
+    </row>
+    <row r="316" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A316" s="31"/>
+    </row>
+    <row r="317" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A317" s="31"/>
+    </row>
+    <row r="318" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A318" s="31"/>
+    </row>
+    <row r="319" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A319" s="31"/>
+    </row>
+    <row r="320" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A320" s="31"/>
+    </row>
+    <row r="321" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A321" s="31"/>
+    </row>
+    <row r="322" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A322" s="31"/>
+    </row>
+    <row r="323" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A323" s="31"/>
+    </row>
+    <row r="324" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A324" s="31"/>
+    </row>
+    <row r="325" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A325" s="31"/>
+    </row>
+    <row r="326" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A326" s="31"/>
+    </row>
+    <row r="327" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A327" s="31"/>
+    </row>
+    <row r="328" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A328" s="31"/>
+    </row>
+    <row r="329" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A329" s="31"/>
+    </row>
+    <row r="330" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A330" s="31"/>
+    </row>
+    <row r="331" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A331" s="31"/>
+    </row>
+    <row r="332" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A332" s="31"/>
+    </row>
+    <row r="333" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A333" s="31"/>
+    </row>
+    <row r="334" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A334" s="31"/>
+    </row>
+    <row r="335" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A335" s="31"/>
+    </row>
+    <row r="336" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A336" s="31"/>
+    </row>
+    <row r="337" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A337" s="31"/>
+    </row>
+    <row r="338" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A338" s="31"/>
+    </row>
+    <row r="339" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A339" s="31"/>
+    </row>
+    <row r="340" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A340" s="31"/>
+    </row>
+    <row r="341" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A341" s="31"/>
+    </row>
+    <row r="342" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A342" s="31"/>
+    </row>
+    <row r="343" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A343" s="31"/>
+    </row>
+    <row r="344" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A344" s="31"/>
+    </row>
+    <row r="345" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A345" s="31"/>
+    </row>
+    <row r="346" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A346" s="31"/>
+    </row>
+    <row r="347" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A347" s="31"/>
+    </row>
+    <row r="348" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A348" s="31"/>
+    </row>
+    <row r="349" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A349" s="31"/>
+    </row>
+    <row r="350" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A350" s="31"/>
+    </row>
+    <row r="351" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A351" s="31"/>
+    </row>
+    <row r="352" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A352" s="31"/>
+    </row>
+    <row r="353" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A353" s="31"/>
+    </row>
+    <row r="354" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A354" s="31"/>
+    </row>
+    <row r="355" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A355" s="31"/>
+    </row>
+    <row r="356" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A356" s="31"/>
+    </row>
+    <row r="357" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A357" s="31"/>
+    </row>
+    <row r="358" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A358" s="31"/>
+    </row>
+    <row r="359" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A359" s="31"/>
+    </row>
+    <row r="360" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A360" s="31"/>
+    </row>
+    <row r="361" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A361" s="31"/>
+    </row>
+    <row r="362" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A362" s="31"/>
+    </row>
+    <row r="363" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A363" s="31"/>
+    </row>
+    <row r="364" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A364" s="31"/>
+    </row>
+    <row r="365" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A365" s="31"/>
+    </row>
+    <row r="366" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A366" s="31"/>
+    </row>
+    <row r="367" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A367" s="31"/>
+    </row>
+    <row r="368" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A368" s="31"/>
+    </row>
+    <row r="369" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A369" s="31"/>
+    </row>
+    <row r="370" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A370" s="31"/>
+    </row>
+    <row r="371" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A371" s="31"/>
+    </row>
+    <row r="372" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A372" s="31"/>
+    </row>
+    <row r="373" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A373" s="31"/>
+    </row>
+    <row r="374" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A374" s="31"/>
+    </row>
+    <row r="375" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A375" s="31"/>
+    </row>
+    <row r="376" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A376" s="31"/>
+    </row>
+    <row r="377" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A377" s="31"/>
+    </row>
+    <row r="378" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A378" s="31"/>
+    </row>
+    <row r="379" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A379" s="31"/>
+    </row>
+    <row r="380" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A380" s="31"/>
+    </row>
+    <row r="381" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A381" s="31"/>
+    </row>
+    <row r="382" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A382" s="31"/>
+    </row>
+    <row r="383" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A383" s="31"/>
+    </row>
+    <row r="384" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A384" s="31"/>
+    </row>
+    <row r="385" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A385" s="31"/>
+    </row>
+    <row r="386" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A386" s="31"/>
+    </row>
+    <row r="387" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A387" s="31"/>
+    </row>
+    <row r="388" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A388" s="31"/>
+    </row>
+    <row r="389" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A389" s="31"/>
+    </row>
+    <row r="390" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A390" s="31"/>
+    </row>
+    <row r="391" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A391" s="31"/>
+    </row>
+    <row r="392" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A392" s="31"/>
+    </row>
+    <row r="393" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A393" s="31"/>
+    </row>
+    <row r="394" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A394" s="31"/>
+    </row>
+    <row r="395" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A395" s="31"/>
+    </row>
+    <row r="396" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A396" s="31"/>
+    </row>
+    <row r="397" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A397" s="31"/>
+    </row>
+    <row r="398" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A398" s="31"/>
+    </row>
+    <row r="399" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A399" s="31"/>
+    </row>
+    <row r="400" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A400" s="31"/>
+    </row>
+    <row r="401" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A401" s="31"/>
+    </row>
+    <row r="402" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A402" s="31"/>
+    </row>
+    <row r="403" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A403" s="31"/>
+    </row>
+    <row r="404" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A404" s="31"/>
+    </row>
+    <row r="405" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A405" s="31"/>
+    </row>
+    <row r="406" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A406" s="31"/>
+    </row>
+    <row r="407" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A407" s="31"/>
+    </row>
+    <row r="408" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A408" s="31"/>
+    </row>
+    <row r="409" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A409" s="31"/>
+    </row>
+    <row r="410" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A410" s="31"/>
+    </row>
+    <row r="411" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A411" s="31"/>
+    </row>
+    <row r="412" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A412" s="31"/>
+    </row>
+    <row r="413" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A413" s="31"/>
+    </row>
+    <row r="414" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A414" s="31"/>
+    </row>
+    <row r="415" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A415" s="31"/>
+    </row>
+    <row r="416" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A416" s="31"/>
+    </row>
+    <row r="417" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A417" s="31"/>
+    </row>
+    <row r="418" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A418" s="31"/>
+    </row>
+    <row r="419" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A419" s="31"/>
+    </row>
+    <row r="420" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A420" s="31"/>
+    </row>
+    <row r="421" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A421" s="31"/>
+    </row>
+    <row r="422" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A422" s="31"/>
+    </row>
+    <row r="423" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A423" s="31"/>
+    </row>
+    <row r="424" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A424" s="31"/>
+    </row>
+    <row r="425" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A425" s="31"/>
+    </row>
+    <row r="426" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A426" s="31"/>
+    </row>
+    <row r="427" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A427" s="31"/>
+    </row>
+    <row r="428" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A428" s="31"/>
+    </row>
+    <row r="429" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A429" s="31"/>
+    </row>
+    <row r="430" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A430" s="31"/>
+    </row>
+    <row r="431" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A431" s="31"/>
+    </row>
+    <row r="432" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A432" s="31"/>
+    </row>
+    <row r="433" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A433" s="31"/>
+    </row>
+    <row r="434" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A434" s="31"/>
+    </row>
+    <row r="435" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A435" s="31"/>
+    </row>
+    <row r="436" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A436" s="31"/>
+    </row>
+    <row r="437" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A437" s="31"/>
+    </row>
+    <row r="438" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A438" s="31"/>
+    </row>
+    <row r="439" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A439" s="31"/>
+    </row>
+    <row r="440" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A440" s="31"/>
+    </row>
+    <row r="441" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A441" s="31"/>
+    </row>
+    <row r="442" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A442" s="31"/>
+    </row>
+    <row r="443" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A443" s="31"/>
+    </row>
+    <row r="444" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A444" s="31"/>
+    </row>
+    <row r="445" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A445" s="31"/>
+    </row>
+    <row r="446" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A446" s="31"/>
+    </row>
+    <row r="447" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A447" s="31"/>
+    </row>
+    <row r="448" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A448" s="31"/>
+    </row>
+    <row r="449" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A449" s="31"/>
+    </row>
+    <row r="450" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A450" s="31"/>
+    </row>
+    <row r="451" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A451" s="31"/>
+    </row>
+    <row r="452" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A452" s="31"/>
+    </row>
+    <row r="453" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A453" s="31"/>
+    </row>
+    <row r="454" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A454" s="31"/>
+    </row>
+    <row r="455" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A455" s="31"/>
+    </row>
+    <row r="456" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A456" s="31"/>
+    </row>
+    <row r="457" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A457" s="31"/>
+    </row>
+    <row r="458" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A458" s="31"/>
+    </row>
+    <row r="459" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A459" s="31"/>
+    </row>
+    <row r="460" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A460" s="31"/>
+    </row>
+    <row r="461" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A461" s="31"/>
+    </row>
+    <row r="462" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A462" s="31"/>
+    </row>
+    <row r="463" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A463" s="31"/>
+    </row>
+    <row r="464" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A464" s="31"/>
+    </row>
+    <row r="465" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A465" s="31"/>
+    </row>
+    <row r="466" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A466" s="31"/>
+    </row>
+    <row r="467" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A467" s="31"/>
+    </row>
+    <row r="468" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A468" s="31"/>
+    </row>
+    <row r="469" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A469" s="31"/>
+    </row>
+    <row r="470" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A470" s="31"/>
+    </row>
+    <row r="471" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A471" s="31"/>
+    </row>
+    <row r="472" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A472" s="31"/>
+    </row>
+    <row r="473" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A473" s="31"/>
+    </row>
+    <row r="474" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A474" s="31"/>
+    </row>
+    <row r="475" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A475" s="31"/>
+    </row>
+    <row r="476" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A476" s="31"/>
+    </row>
+    <row r="477" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A477" s="31"/>
+    </row>
+    <row r="478" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A478" s="31"/>
+    </row>
+    <row r="479" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A479" s="31"/>
+    </row>
+    <row r="480" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A480" s="31"/>
+    </row>
+    <row r="481" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A481" s="31"/>
+    </row>
+    <row r="482" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A482" s="31"/>
+    </row>
+    <row r="483" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A483" s="31"/>
+    </row>
+    <row r="484" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A484" s="31"/>
+    </row>
+    <row r="485" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A485" s="31"/>
+    </row>
+    <row r="486" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A486" s="31"/>
+    </row>
+    <row r="487" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A487" s="31"/>
+    </row>
+    <row r="488" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A488" s="31"/>
+    </row>
+    <row r="489" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A489" s="31"/>
+    </row>
+    <row r="490" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A490" s="31"/>
+    </row>
+    <row r="491" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A491" s="31"/>
+    </row>
+    <row r="492" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A492" s="31"/>
+    </row>
+    <row r="493" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A493" s="31"/>
+    </row>
+    <row r="494" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A494" s="31"/>
+    </row>
+    <row r="495" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A495" s="31"/>
+    </row>
+    <row r="496" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A496" s="31"/>
+    </row>
+    <row r="497" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A497" s="31"/>
+    </row>
+    <row r="498" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A498" s="31"/>
+    </row>
+    <row r="499" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A499" s="31"/>
+    </row>
+    <row r="500" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A500" s="31"/>
+    </row>
+    <row r="501" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A501" s="31"/>
+    </row>
+    <row r="502" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A502" s="31"/>
+    </row>
+    <row r="503" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A503" s="31"/>
+    </row>
+    <row r="504" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A504" s="31"/>
+    </row>
+    <row r="505" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A505" s="31"/>
+    </row>
+    <row r="506" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A506" s="31"/>
+    </row>
+    <row r="507" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A507" s="31"/>
+    </row>
+    <row r="508" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A508" s="31"/>
+    </row>
+    <row r="509" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A509" s="31"/>
+    </row>
+    <row r="510" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A510" s="31"/>
+    </row>
+    <row r="511" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A511" s="31"/>
+    </row>
+    <row r="512" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A512" s="31"/>
+    </row>
+    <row r="513" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A513" s="31"/>
+    </row>
+    <row r="514" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A514" s="31"/>
+    </row>
+    <row r="515" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A515" s="31"/>
+    </row>
+    <row r="516" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A516" s="31"/>
+    </row>
+    <row r="517" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A517" s="31"/>
+    </row>
+    <row r="518" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A518" s="31"/>
+    </row>
+    <row r="519" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A519" s="31"/>
+    </row>
+    <row r="520" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A520" s="31"/>
+    </row>
+    <row r="521" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A521" s="31"/>
+    </row>
+    <row r="522" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A522" s="31"/>
+    </row>
+    <row r="523" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A523" s="31"/>
+    </row>
+    <row r="524" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A524" s="31"/>
+    </row>
+    <row r="525" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A525" s="31"/>
+    </row>
+    <row r="526" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A526" s="31"/>
+    </row>
+    <row r="527" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A527" s="31"/>
+    </row>
+    <row r="528" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A528" s="31"/>
+    </row>
+    <row r="529" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A529" s="31"/>
+    </row>
+    <row r="530" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A530" s="31"/>
+    </row>
+    <row r="531" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A531" s="31"/>
+    </row>
+    <row r="532" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A532" s="31"/>
+    </row>
+    <row r="533" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A533" s="31"/>
+    </row>
+    <row r="534" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A534" s="31"/>
+    </row>
+    <row r="535" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A535" s="31"/>
+    </row>
+    <row r="536" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A536" s="31"/>
+    </row>
+    <row r="537" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A537" s="31"/>
+    </row>
+    <row r="538" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A538" s="31"/>
+    </row>
+    <row r="539" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A539" s="31"/>
+    </row>
+    <row r="540" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A540" s="31"/>
+    </row>
+    <row r="541" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A541" s="31"/>
+    </row>
+    <row r="542" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A542" s="31"/>
+    </row>
+    <row r="543" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A543" s="31"/>
+    </row>
+    <row r="544" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A544" s="31"/>
+    </row>
+    <row r="545" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A545" s="31"/>
+    </row>
+    <row r="546" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A546" s="31"/>
+    </row>
+    <row r="547" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A547" s="31"/>
+    </row>
+    <row r="548" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A548" s="31"/>
+    </row>
+    <row r="549" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A549" s="31"/>
+    </row>
+    <row r="550" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A550" s="31"/>
+    </row>
+    <row r="551" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A551" s="31"/>
+    </row>
+    <row r="552" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A552" s="31"/>
+    </row>
+    <row r="553" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A553" s="31"/>
+    </row>
+    <row r="554" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A554" s="31"/>
+    </row>
+    <row r="555" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A555" s="31"/>
+    </row>
+    <row r="556" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A556" s="31"/>
+    </row>
+    <row r="557" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A557" s="31"/>
+    </row>
+    <row r="558" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A558" s="31"/>
+    </row>
+    <row r="559" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A559" s="31"/>
+    </row>
+    <row r="560" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A560" s="31"/>
+    </row>
+    <row r="561" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A561" s="31"/>
+    </row>
+    <row r="562" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A562" s="31"/>
+    </row>
+    <row r="563" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A563" s="31"/>
+    </row>
+    <row r="564" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A564" s="31"/>
+    </row>
+    <row r="565" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A565" s="31"/>
+    </row>
+    <row r="566" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A566" s="31"/>
+    </row>
+    <row r="567" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A567" s="31"/>
+    </row>
+    <row r="568" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A568" s="31"/>
+    </row>
+    <row r="569" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A569" s="31"/>
+    </row>
+    <row r="570" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A570" s="31"/>
+    </row>
+    <row r="571" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A571" s="31"/>
+    </row>
+    <row r="572" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A572" s="31"/>
+    </row>
+    <row r="573" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A573" s="31"/>
+    </row>
+    <row r="574" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A574" s="31"/>
+    </row>
+    <row r="575" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A575" s="31"/>
+    </row>
+    <row r="576" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A576" s="31"/>
+    </row>
+    <row r="577" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A577" s="31"/>
+    </row>
+    <row r="578" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A578" s="31"/>
+    </row>
+    <row r="579" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A579" s="31"/>
+    </row>
+    <row r="580" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A580" s="31"/>
+    </row>
+    <row r="581" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A581" s="31"/>
+    </row>
+    <row r="582" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A582" s="31"/>
+    </row>
+    <row r="583" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A583" s="31"/>
+    </row>
+    <row r="584" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A584" s="31"/>
+    </row>
+    <row r="585" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A585" s="31"/>
+    </row>
+    <row r="586" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A586" s="31"/>
+    </row>
+    <row r="587" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A587" s="31"/>
+    </row>
+    <row r="588" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A588" s="31"/>
+    </row>
+    <row r="589" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A589" s="31"/>
+    </row>
+    <row r="590" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A590" s="31"/>
+    </row>
+    <row r="591" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A591" s="31"/>
+    </row>
+    <row r="592" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A592" s="31"/>
+    </row>
+    <row r="593" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A593" s="31"/>
+    </row>
+    <row r="594" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A594" s="31"/>
+    </row>
+    <row r="595" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A595" s="31"/>
+    </row>
+    <row r="596" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A596" s="31"/>
+    </row>
+    <row r="597" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A597" s="31"/>
+    </row>
+    <row r="598" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A598" s="31"/>
+    </row>
+    <row r="599" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A599" s="31"/>
+    </row>
+    <row r="600" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A600" s="31"/>
+    </row>
+    <row r="601" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A601" s="31"/>
+    </row>
+    <row r="602" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A602" s="31"/>
+    </row>
+    <row r="603" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A603" s="31"/>
+    </row>
+    <row r="604" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A604" s="31"/>
+    </row>
+    <row r="605" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A605" s="31"/>
+    </row>
+    <row r="606" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A606" s="31"/>
+    </row>
+    <row r="607" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A607" s="31"/>
+    </row>
+    <row r="608" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A608" s="31"/>
+    </row>
+    <row r="609" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A609" s="31"/>
+    </row>
+    <row r="610" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A610" s="31"/>
+    </row>
+    <row r="611" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A611" s="31"/>
+    </row>
+    <row r="612" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A612" s="31"/>
+    </row>
+    <row r="613" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A613" s="31"/>
+    </row>
+    <row r="614" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A614" s="31"/>
+    </row>
+    <row r="615" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A615" s="31"/>
+    </row>
+    <row r="616" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A616" s="31"/>
+    </row>
+    <row r="617" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A617" s="31"/>
+    </row>
+    <row r="618" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A618" s="31"/>
+    </row>
+    <row r="619" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A619" s="31"/>
+    </row>
+    <row r="620" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A620" s="31"/>
+    </row>
+    <row r="621" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A621" s="31"/>
+    </row>
+    <row r="622" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A622" s="31"/>
+    </row>
+    <row r="623" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A623" s="31"/>
+    </row>
+    <row r="624" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A624" s="31"/>
+    </row>
+    <row r="625" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A625" s="31"/>
+    </row>
+    <row r="626" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A626" s="31"/>
+    </row>
+    <row r="627" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A627" s="31"/>
+    </row>
+    <row r="628" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A628" s="31"/>
+    </row>
+    <row r="629" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A629" s="31"/>
+    </row>
+    <row r="630" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A630" s="31"/>
+    </row>
+    <row r="631" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A631" s="31"/>
+    </row>
+    <row r="632" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A632" s="31"/>
+    </row>
+    <row r="633" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A633" s="31"/>
+    </row>
+    <row r="634" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A634" s="31"/>
+    </row>
+    <row r="635" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A635" s="31"/>
+    </row>
+    <row r="636" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A636" s="31"/>
+    </row>
+    <row r="637" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A637" s="31"/>
+    </row>
+    <row r="638" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A638" s="31"/>
+    </row>
+    <row r="639" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A639" s="31"/>
+    </row>
+    <row r="640" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A640" s="31"/>
+    </row>
+    <row r="641" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A641" s="31"/>
+    </row>
+    <row r="642" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A642" s="31"/>
+    </row>
+    <row r="643" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A643" s="31"/>
+    </row>
+    <row r="644" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A644" s="31"/>
+    </row>
+    <row r="645" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A645" s="31"/>
+    </row>
+    <row r="646" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A646" s="31"/>
+    </row>
+    <row r="647" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A647" s="31"/>
+    </row>
+    <row r="648" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A648" s="31"/>
+    </row>
+    <row r="649" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A649" s="31"/>
+    </row>
+    <row r="650" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A650" s="31"/>
+    </row>
+    <row r="651" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A651" s="31"/>
+    </row>
+    <row r="652" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A652" s="31"/>
+    </row>
+    <row r="653" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A653" s="31"/>
+    </row>
+    <row r="654" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A654" s="31"/>
+    </row>
+    <row r="655" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A655" s="31"/>
+    </row>
+    <row r="656" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A656" s="31"/>
+    </row>
+    <row r="657" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A657" s="31"/>
+    </row>
+    <row r="658" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A658" s="31"/>
+    </row>
+    <row r="659" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A659" s="31"/>
+    </row>
+    <row r="660" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A660" s="31"/>
+    </row>
+    <row r="661" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A661" s="31"/>
+    </row>
+    <row r="662" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A662" s="31"/>
+    </row>
+    <row r="663" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A663" s="31"/>
+    </row>
+    <row r="664" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A664" s="31"/>
+    </row>
+    <row r="665" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A665" s="31"/>
+    </row>
+    <row r="666" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A666" s="31"/>
+    </row>
+    <row r="667" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A667" s="31"/>
+    </row>
+    <row r="668" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A668" s="31"/>
+    </row>
+    <row r="669" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A669" s="31"/>
+    </row>
+    <row r="670" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A670" s="31"/>
+    </row>
+    <row r="671" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A671" s="31"/>
+    </row>
+    <row r="672" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A672" s="31"/>
+    </row>
+    <row r="673" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A673" s="31"/>
+    </row>
+    <row r="674" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A674" s="31"/>
+    </row>
+    <row r="675" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A675" s="31"/>
+    </row>
+    <row r="676" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A676" s="31"/>
+    </row>
+    <row r="677" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A677" s="31"/>
+    </row>
+    <row r="678" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A678" s="31"/>
+    </row>
+    <row r="679" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A679" s="31"/>
+    </row>
+    <row r="680" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A680" s="31"/>
+    </row>
+    <row r="681" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A681" s="31"/>
+    </row>
+    <row r="682" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A682" s="31"/>
+    </row>
+    <row r="683" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A683" s="31"/>
+    </row>
+    <row r="684" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A684" s="31"/>
+    </row>
+    <row r="685" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A685" s="31"/>
+    </row>
+    <row r="686" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A686" s="31"/>
+    </row>
+    <row r="687" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A687" s="31"/>
+    </row>
+    <row r="688" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A688" s="31"/>
+    </row>
+    <row r="689" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A689" s="31"/>
+    </row>
+    <row r="690" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A690" s="31"/>
+    </row>
+    <row r="691" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A691" s="31"/>
+    </row>
+    <row r="692" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A692" s="31"/>
+    </row>
+    <row r="693" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A693" s="31"/>
+    </row>
+    <row r="694" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A694" s="31"/>
+    </row>
+    <row r="695" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A695" s="31"/>
+    </row>
+    <row r="696" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A696" s="31"/>
+    </row>
+    <row r="697" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A697" s="31"/>
+    </row>
+    <row r="698" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A698" s="31"/>
+    </row>
+    <row r="699" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A699" s="31"/>
+    </row>
+    <row r="700" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A700" s="31"/>
+    </row>
+    <row r="701" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A701" s="31"/>
+    </row>
+    <row r="702" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A702" s="31"/>
+    </row>
+    <row r="703" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A703" s="31"/>
+    </row>
+    <row r="704" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A704" s="31"/>
+    </row>
+    <row r="705" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A705" s="31"/>
+    </row>
+    <row r="706" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A706" s="31"/>
+    </row>
+    <row r="707" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A707" s="31"/>
+    </row>
+    <row r="708" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A708" s="31"/>
+    </row>
+    <row r="709" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A709" s="31"/>
+    </row>
+    <row r="710" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A710" s="31"/>
+    </row>
+    <row r="711" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A711" s="31"/>
+    </row>
+    <row r="712" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A712" s="31"/>
+    </row>
+    <row r="713" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A713" s="31"/>
+    </row>
+    <row r="714" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A714" s="31"/>
+    </row>
+    <row r="715" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A715" s="31"/>
+    </row>
+    <row r="716" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A716" s="31"/>
+    </row>
+    <row r="717" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A717" s="31"/>
+    </row>
+    <row r="718" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A718" s="31"/>
+    </row>
+    <row r="719" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A719" s="31"/>
+    </row>
+    <row r="720" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A720" s="31"/>
+    </row>
+    <row r="721" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A721" s="31"/>
+    </row>
+    <row r="722" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A722" s="31"/>
+    </row>
+    <row r="723" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A723" s="31"/>
+    </row>
+    <row r="724" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A724" s="31"/>
+    </row>
+    <row r="725" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A725" s="31"/>
+    </row>
+    <row r="726" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A726" s="31"/>
+    </row>
+    <row r="727" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A727" s="31"/>
+    </row>
+    <row r="728" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A728" s="31"/>
+    </row>
+    <row r="729" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A729" s="31"/>
+    </row>
+    <row r="730" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A730" s="31"/>
+    </row>
+    <row r="731" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A731" s="31"/>
+    </row>
+    <row r="732" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A732" s="31"/>
+    </row>
+    <row r="733" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A733" s="31"/>
+    </row>
+    <row r="734" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A734" s="31"/>
+    </row>
+    <row r="735" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A735" s="31"/>
+    </row>
+    <row r="736" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A736" s="31"/>
+    </row>
+    <row r="737" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A737" s="31"/>
+    </row>
+    <row r="738" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A738" s="31"/>
+    </row>
+    <row r="739" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A739" s="31"/>
+    </row>
+    <row r="740" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A740" s="31"/>
+    </row>
+    <row r="741" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A741" s="31"/>
+    </row>
+    <row r="742" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A742" s="31"/>
+    </row>
+    <row r="743" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A743" s="31"/>
+    </row>
+    <row r="744" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A744" s="31"/>
+    </row>
+    <row r="745" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A745" s="31"/>
+    </row>
+    <row r="746" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A746" s="31"/>
+    </row>
+    <row r="747" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A747" s="31"/>
+    </row>
+    <row r="748" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A748" s="31"/>
+    </row>
+    <row r="749" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A749" s="31"/>
+    </row>
+    <row r="750" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A750" s="31"/>
+    </row>
+    <row r="751" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A751" s="31"/>
+    </row>
+    <row r="752" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A752" s="31"/>
+    </row>
+    <row r="753" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A753" s="31"/>
+    </row>
+    <row r="754" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A754" s="31"/>
+    </row>
+    <row r="755" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A755" s="31"/>
+    </row>
+    <row r="756" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A756" s="31"/>
+    </row>
+    <row r="757" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A757" s="31"/>
+    </row>
+    <row r="758" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A758" s="31"/>
+    </row>
+    <row r="759" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A759" s="31"/>
+    </row>
+    <row r="760" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A760" s="31"/>
+    </row>
+    <row r="761" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A761" s="31"/>
+    </row>
+    <row r="762" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A762" s="31"/>
+    </row>
+    <row r="763" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A763" s="31"/>
+    </row>
+    <row r="764" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A764" s="31"/>
+    </row>
+    <row r="765" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A765" s="31"/>
+    </row>
+    <row r="766" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A766" s="31"/>
+    </row>
+    <row r="767" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A767" s="31"/>
+    </row>
+    <row r="768" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A768" s="31"/>
+    </row>
+    <row r="769" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A769" s="31"/>
+    </row>
+    <row r="770" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A770" s="31"/>
+    </row>
+    <row r="771" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A771" s="31"/>
+    </row>
+    <row r="772" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A772" s="31"/>
+    </row>
+    <row r="773" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A773" s="31"/>
+    </row>
+    <row r="774" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A774" s="31"/>
+    </row>
+    <row r="775" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A775" s="31"/>
+    </row>
+    <row r="776" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A776" s="31"/>
+    </row>
+    <row r="777" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A777" s="31"/>
+    </row>
+    <row r="778" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A778" s="31"/>
+    </row>
+    <row r="779" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A779" s="31"/>
+    </row>
+    <row r="780" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A780" s="31"/>
+    </row>
+    <row r="781" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A781" s="31"/>
+    </row>
+    <row r="782" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A782" s="31"/>
+    </row>
+    <row r="783" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A783" s="31"/>
+    </row>
+    <row r="784" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A784" s="31"/>
+    </row>
+    <row r="785" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A785" s="31"/>
+    </row>
+    <row r="786" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A786" s="31"/>
+    </row>
+    <row r="787" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A787" s="31"/>
+    </row>
+    <row r="788" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A788" s="31"/>
+    </row>
+    <row r="789" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A789" s="31"/>
+    </row>
+    <row r="790" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A790" s="31"/>
+    </row>
+    <row r="791" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A791" s="31"/>
+    </row>
+    <row r="792" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A792" s="31"/>
+    </row>
+    <row r="793" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A793" s="31"/>
+    </row>
+    <row r="794" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A794" s="31"/>
+    </row>
+    <row r="795" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A795" s="31"/>
+    </row>
+    <row r="796" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A796" s="31"/>
+    </row>
+    <row r="797" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A797" s="31"/>
+    </row>
+    <row r="798" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A798" s="31"/>
+    </row>
+    <row r="799" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A799" s="31"/>
+    </row>
+    <row r="800" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A800" s="31"/>
+    </row>
+    <row r="801" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A801" s="31"/>
+    </row>
+    <row r="802" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A802" s="31"/>
+    </row>
+    <row r="803" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A803" s="31"/>
+    </row>
+    <row r="804" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A804" s="31"/>
+    </row>
+    <row r="805" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A805" s="31"/>
+    </row>
+    <row r="806" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A806" s="31"/>
+    </row>
+    <row r="807" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A807" s="31"/>
+    </row>
+    <row r="808" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A808" s="31"/>
+    </row>
+    <row r="809" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A809" s="31"/>
+    </row>
+    <row r="810" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A810" s="31"/>
+    </row>
+    <row r="811" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A811" s="31"/>
+    </row>
+    <row r="812" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A812" s="31"/>
+    </row>
+    <row r="813" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A813" s="31"/>
+    </row>
+    <row r="814" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A814" s="31"/>
+    </row>
+    <row r="815" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A815" s="31"/>
+    </row>
+    <row r="816" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A816" s="31"/>
+    </row>
+    <row r="817" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A817" s="31"/>
+    </row>
+    <row r="818" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A818" s="31"/>
+    </row>
+    <row r="819" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A819" s="31"/>
+    </row>
+    <row r="820" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A820" s="31"/>
+    </row>
+    <row r="821" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A821" s="31"/>
+    </row>
+    <row r="822" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A822" s="31"/>
+    </row>
+    <row r="823" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A823" s="31"/>
+    </row>
+    <row r="824" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A824" s="31"/>
+    </row>
+    <row r="825" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A825" s="31"/>
+    </row>
+    <row r="826" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A826" s="31"/>
+    </row>
+    <row r="827" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A827" s="31"/>
+    </row>
+    <row r="828" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A828" s="31"/>
+    </row>
+    <row r="829" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A829" s="31"/>
+    </row>
+    <row r="830" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A830" s="31"/>
+    </row>
+    <row r="831" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A831" s="31"/>
+    </row>
+    <row r="832" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A832" s="31"/>
+    </row>
+    <row r="833" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A833" s="31"/>
+    </row>
+    <row r="834" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A834" s="31"/>
+    </row>
+    <row r="835" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A835" s="31"/>
+    </row>
+    <row r="836" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A836" s="31"/>
+    </row>
+    <row r="837" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A837" s="31"/>
+    </row>
+    <row r="838" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A838" s="31"/>
+    </row>
+    <row r="839" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A839" s="31"/>
+    </row>
+    <row r="840" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A840" s="31"/>
+    </row>
+    <row r="841" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A841" s="31"/>
+    </row>
+    <row r="842" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A842" s="31"/>
+    </row>
+    <row r="843" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A843" s="31"/>
+    </row>
+    <row r="844" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A844" s="31"/>
+    </row>
+    <row r="845" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A845" s="31"/>
+    </row>
+    <row r="846" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A846" s="31"/>
+    </row>
+    <row r="847" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A847" s="31"/>
+    </row>
+    <row r="848" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A848" s="31"/>
+    </row>
+    <row r="849" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A849" s="31"/>
+    </row>
+    <row r="850" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A850" s="31"/>
+    </row>
+    <row r="851" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A851" s="31"/>
+    </row>
+    <row r="852" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A852" s="31"/>
+    </row>
+    <row r="853" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A853" s="31"/>
+    </row>
+    <row r="854" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A854" s="31"/>
+    </row>
+    <row r="855" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A855" s="31"/>
+    </row>
+    <row r="856" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A856" s="31"/>
+    </row>
+    <row r="857" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A857" s="31"/>
+    </row>
+    <row r="858" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A858" s="31"/>
+    </row>
+    <row r="859" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A859" s="31"/>
+    </row>
+    <row r="860" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A860" s="31"/>
+    </row>
+    <row r="861" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A861" s="31"/>
+    </row>
+    <row r="862" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A862" s="31"/>
+    </row>
+    <row r="863" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A863" s="31"/>
+    </row>
+    <row r="864" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A864" s="31"/>
+    </row>
+    <row r="865" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A865" s="31"/>
+    </row>
+    <row r="866" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A866" s="31"/>
+    </row>
+    <row r="867" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A867" s="31"/>
+    </row>
+    <row r="868" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A868" s="31"/>
+    </row>
+    <row r="869" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A869" s="31"/>
+    </row>
+    <row r="870" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A870" s="31"/>
+    </row>
+    <row r="871" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A871" s="31"/>
+    </row>
+    <row r="872" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A872" s="31"/>
+    </row>
+    <row r="873" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A873" s="31"/>
+    </row>
+    <row r="874" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A874" s="31"/>
+    </row>
+    <row r="875" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A875" s="31"/>
+    </row>
+    <row r="876" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A876" s="31"/>
+    </row>
+    <row r="877" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A877" s="31"/>
+    </row>
+    <row r="878" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A878" s="31"/>
+    </row>
+    <row r="879" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A879" s="31"/>
+    </row>
+    <row r="880" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A880" s="31"/>
+    </row>
+    <row r="881" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A881" s="31"/>
+    </row>
+    <row r="882" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A882" s="31"/>
+    </row>
+    <row r="883" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A883" s="31"/>
+    </row>
+    <row r="884" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A884" s="31"/>
+    </row>
+    <row r="885" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A885" s="31"/>
+    </row>
+    <row r="886" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A886" s="31"/>
+    </row>
+    <row r="887" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A887" s="31"/>
+    </row>
+    <row r="888" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A888" s="31"/>
+    </row>
+    <row r="889" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A889" s="31"/>
+    </row>
+    <row r="890" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A890" s="31"/>
+    </row>
+    <row r="891" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A891" s="31"/>
+    </row>
+    <row r="892" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A892" s="31"/>
+    </row>
+    <row r="893" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A893" s="31"/>
+    </row>
+    <row r="894" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A894" s="31"/>
+    </row>
+    <row r="895" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A895" s="31"/>
+    </row>
+    <row r="896" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A896" s="31"/>
+    </row>
+    <row r="897" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A897" s="31"/>
+    </row>
+    <row r="898" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A898" s="31"/>
+    </row>
+    <row r="899" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A899" s="31"/>
+    </row>
+    <row r="900" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A900" s="31"/>
+    </row>
+    <row r="901" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A901" s="31"/>
+    </row>
+    <row r="902" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A902" s="31"/>
+    </row>
+    <row r="903" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A903" s="31"/>
+    </row>
+    <row r="904" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A904" s="31"/>
+    </row>
+    <row r="905" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A905" s="31"/>
+    </row>
+    <row r="906" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A906" s="31"/>
+    </row>
+    <row r="907" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A907" s="31"/>
+    </row>
+    <row r="908" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A908" s="31"/>
+    </row>
+    <row r="909" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A909" s="31"/>
+    </row>
+    <row r="910" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A910" s="31"/>
+    </row>
+    <row r="911" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A911" s="31"/>
+    </row>
+    <row r="912" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A912" s="31"/>
+    </row>
+    <row r="913" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A913" s="31"/>
+    </row>
+    <row r="914" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A914" s="31"/>
+    </row>
+    <row r="915" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A915" s="31"/>
+    </row>
+    <row r="916" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A916" s="31"/>
+    </row>
+    <row r="917" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A917" s="31"/>
+    </row>
+    <row r="918" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A918" s="31"/>
+    </row>
+    <row r="919" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A919" s="31"/>
+    </row>
+    <row r="920" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A920" s="31"/>
+    </row>
+    <row r="921" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A921" s="31"/>
+    </row>
+    <row r="922" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A922" s="31"/>
+    </row>
+    <row r="923" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A923" s="31"/>
+    </row>
+    <row r="924" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A924" s="31"/>
+    </row>
+    <row r="925" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A925" s="31"/>
+    </row>
+    <row r="926" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A926" s="31"/>
+    </row>
+    <row r="927" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A927" s="31"/>
+    </row>
+    <row r="928" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A928" s="31"/>
+    </row>
+    <row r="929" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A929" s="31"/>
+    </row>
+    <row r="930" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A930" s="31"/>
+    </row>
+    <row r="931" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A931" s="31"/>
+    </row>
+    <row r="932" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A932" s="31"/>
+    </row>
+    <row r="933" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A933" s="31"/>
+    </row>
+    <row r="934" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A934" s="31"/>
+    </row>
+    <row r="935" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A935" s="31"/>
+    </row>
+    <row r="936" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A936" s="31"/>
+    </row>
+    <row r="937" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A937" s="31"/>
+    </row>
+    <row r="938" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A938" s="31"/>
+    </row>
+    <row r="939" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A939" s="31"/>
+    </row>
+    <row r="940" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A940" s="31"/>
+    </row>
+    <row r="941" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A941" s="31"/>
+    </row>
+    <row r="942" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A942" s="31"/>
+    </row>
+    <row r="943" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A943" s="31"/>
+    </row>
+    <row r="944" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A944" s="31"/>
+    </row>
+    <row r="945" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A945" s="31"/>
+    </row>
+    <row r="946" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A946" s="31"/>
+    </row>
+    <row r="947" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A947" s="31"/>
+    </row>
+    <row r="948" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A948" s="31"/>
+    </row>
+    <row r="949" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A949" s="31"/>
+    </row>
+    <row r="950" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A950" s="31"/>
+    </row>
+    <row r="951" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A951" s="31"/>
+    </row>
+    <row r="952" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A952" s="31"/>
+    </row>
+    <row r="953" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A953" s="31"/>
+    </row>
+    <row r="954" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A954" s="31"/>
+    </row>
+    <row r="955" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A955" s="31"/>
+    </row>
+    <row r="956" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A956" s="31"/>
+    </row>
+    <row r="957" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A957" s="31"/>
+    </row>
+    <row r="958" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A958" s="31"/>
+    </row>
+    <row r="959" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A959" s="31"/>
+    </row>
+    <row r="960" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A960" s="31"/>
+    </row>
+    <row r="961" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A961" s="31"/>
+    </row>
+    <row r="962" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A962" s="31"/>
+    </row>
+    <row r="963" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A963" s="31"/>
+    </row>
+    <row r="964" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A964" s="31"/>
+    </row>
+    <row r="965" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A965" s="31"/>
+    </row>
+    <row r="966" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A966" s="31"/>
+    </row>
+    <row r="967" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A967" s="31"/>
+    </row>
+    <row r="968" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A968" s="31"/>
+    </row>
+    <row r="969" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A969" s="31"/>
+    </row>
+    <row r="970" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A970" s="31"/>
+    </row>
+    <row r="971" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A971" s="31"/>
+    </row>
+    <row r="972" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A972" s="31"/>
+    </row>
+    <row r="973" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A973" s="31"/>
+    </row>
+    <row r="974" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A974" s="31"/>
+    </row>
+    <row r="975" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A975" s="31"/>
+    </row>
+    <row r="976" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A976" s="31"/>
+    </row>
+    <row r="977" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A977" s="31"/>
+    </row>
+    <row r="978" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A978" s="31"/>
+    </row>
+    <row r="979" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A979" s="31"/>
+    </row>
+    <row r="980" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A980" s="31"/>
+    </row>
+    <row r="981" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A981" s="31"/>
+    </row>
+    <row r="982" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A982" s="31"/>
+    </row>
+    <row r="983" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A983" s="31"/>
+    </row>
+    <row r="984" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A984" s="31"/>
+    </row>
+    <row r="985" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A985" s="31"/>
+    </row>
+    <row r="986" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A986" s="31"/>
+    </row>
+    <row r="987" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A987" s="31"/>
+    </row>
+    <row r="988" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A988" s="31"/>
+    </row>
+    <row r="989" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A989" s="31"/>
+    </row>
+    <row r="990" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A990" s="31"/>
+    </row>
+    <row r="991" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A991" s="31"/>
+    </row>
+    <row r="992" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A992" s="31"/>
+    </row>
+    <row r="993" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A993" s="31"/>
+    </row>
+    <row r="994" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A994" s="31"/>
+    </row>
+    <row r="995" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A995" s="31"/>
+    </row>
+    <row r="996" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A996" s="31"/>
+    </row>
+    <row r="997" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A997" s="31"/>
+    </row>
+    <row r="998" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A998" s="31"/>
+    </row>
+    <row r="999" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A999" s="31"/>
+    </row>
+    <row r="1000" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1000" s="31"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
